--- a/EYZWG9_0409/eyzwg9.xlsx
+++ b/EYZWG9_0409/eyzwg9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Desktop\FEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD5C3CC-8398-47DD-A8B5-6BE4C3C896E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E46A07-31AD-4D42-A99C-CF44D76E35E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{9AE628E0-7C8C-4AEC-ADCA-FC5545A271DA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="28">
   <si>
     <t>Beérk. Idő (ms)</t>
   </si>
@@ -96,35 +96,35 @@
     <t>(37,5-1,5)/37,5= 96,5 %</t>
   </si>
   <si>
-    <t>CPU idő</t>
-  </si>
-  <si>
-    <t>Befejezés</t>
-  </si>
-  <si>
-    <t>Várakozás</t>
-  </si>
-  <si>
-    <t>9,5,1</t>
-  </si>
-  <si>
-    <t>0,4,12</t>
-  </si>
-  <si>
-    <t>3,8,20</t>
-  </si>
-  <si>
-    <t>6,16,29</t>
-  </si>
-  <si>
-    <t>11,24,34</t>
+    <t>1.indulás</t>
+  </si>
+  <si>
+    <t>2.indulás</t>
+  </si>
+  <si>
+    <t>3.indulás</t>
+  </si>
+  <si>
+    <t>1.befejezés</t>
+  </si>
+  <si>
+    <t>2.befejezés</t>
+  </si>
+  <si>
+    <t>3.befejezés</t>
+  </si>
+  <si>
+    <t>Gantt diagram</t>
+  </si>
+  <si>
+    <t>Várakozik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +142,82 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -268,11 +334,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,6 +454,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE8F27-D21D-4B7A-B82C-EC0A10ADE4E8}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,21 +827,22 @@
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="50" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -708,20 +867,12 @@
       <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -746,23 +897,13 @@
       <c r="H2" s="8">
         <v>25</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -787,23 +928,13 @@
       <c r="H3" s="8">
         <v>27</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="19">
-        <v>9.5</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -828,23 +959,13 @@
       <c r="H4" s="8">
         <v>29</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20">
-        <v>4</v>
-      </c>
-      <c r="M4" s="20">
-        <v>8</v>
-      </c>
-      <c r="N4" s="22">
-        <v>12</v>
-      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -869,72 +990,777 @@
       <c r="H5" s="12">
         <v>25</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="20">
-        <v>4</v>
-      </c>
-      <c r="L5" s="22">
-        <v>8</v>
-      </c>
-      <c r="M5" s="22">
-        <v>12</v>
-      </c>
-      <c r="N5" s="17">
-        <v>16</v>
-      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J6" s="17" t="s">
-        <v>22</v>
-      </c>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="J6" s="17"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="N8" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="24"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="27">
+        <v>1</v>
+      </c>
+      <c r="P9" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>3</v>
+      </c>
+      <c r="R9" s="27">
+        <v>4</v>
+      </c>
+      <c r="S9" s="27">
+        <v>5</v>
+      </c>
+      <c r="T9" s="27">
+        <v>6</v>
+      </c>
+      <c r="U9" s="27">
+        <v>7</v>
+      </c>
+      <c r="V9" s="27">
+        <v>8</v>
+      </c>
+      <c r="W9" s="27">
+        <v>9</v>
+      </c>
+      <c r="X9" s="27">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="27">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="27">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="27">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="27">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="27">
+        <v>15</v>
+      </c>
+      <c r="AD9" s="27">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="27">
+        <v>17</v>
+      </c>
+      <c r="AF9" s="27">
+        <v>18</v>
+      </c>
+      <c r="AG9" s="27">
+        <v>19</v>
+      </c>
+      <c r="AH9" s="27">
+        <v>20</v>
+      </c>
+      <c r="AI9" s="27">
+        <v>21</v>
+      </c>
+      <c r="AJ9" s="27">
+        <v>22</v>
+      </c>
+      <c r="AK9" s="27">
+        <v>23</v>
+      </c>
+      <c r="AL9" s="27">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="27">
+        <v>25</v>
+      </c>
+      <c r="AN9" s="27">
+        <v>26</v>
+      </c>
+      <c r="AO9" s="27">
+        <v>27</v>
+      </c>
+      <c r="AP9" s="27">
+        <v>28</v>
+      </c>
+      <c r="AQ9" s="27">
+        <v>29</v>
+      </c>
+      <c r="AR9" s="27">
+        <v>30</v>
+      </c>
+      <c r="AS9" s="27">
+        <v>31</v>
+      </c>
+      <c r="AT9" s="27">
+        <v>32</v>
+      </c>
+      <c r="AU9" s="27">
+        <v>33</v>
+      </c>
+      <c r="AV9" s="27">
+        <v>34</v>
+      </c>
+      <c r="AW9" s="27">
+        <v>35</v>
+      </c>
+      <c r="AX9" s="29">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="D10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>4</v>
+      </c>
+      <c r="I10" s="31">
+        <v>8</v>
+      </c>
+      <c r="J10" s="31">
+        <v>12</v>
+      </c>
+      <c r="K10" s="31">
+        <v>24</v>
+      </c>
+      <c r="L10" s="32">
+        <v>25</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="47"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="33">
+        <v>4</v>
+      </c>
+      <c r="H11" s="34">
+        <v>8</v>
+      </c>
+      <c r="I11" s="34">
+        <v>16</v>
+      </c>
+      <c r="J11" s="34">
+        <v>20</v>
+      </c>
+      <c r="K11" s="34">
+        <v>29</v>
+      </c>
+      <c r="L11" s="35">
+        <v>30</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="47"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="D12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="36">
+        <v>12</v>
+      </c>
+      <c r="H12" s="37">
+        <v>16</v>
+      </c>
+      <c r="I12" s="37">
+        <v>25</v>
+      </c>
+      <c r="J12" s="37">
+        <v>29</v>
+      </c>
+      <c r="K12" s="37">
+        <v>34</v>
+      </c>
+      <c r="L12" s="38">
+        <v>35</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="47"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="D13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="42">
+        <v>11</v>
+      </c>
+      <c r="F13" s="42">
+        <v>9</v>
+      </c>
+      <c r="G13" s="39">
+        <v>20</v>
+      </c>
+      <c r="H13" s="40">
+        <v>24</v>
+      </c>
+      <c r="I13" s="40">
+        <v>30</v>
+      </c>
+      <c r="J13" s="40">
+        <v>34</v>
+      </c>
+      <c r="K13" s="40">
+        <v>35</v>
+      </c>
+      <c r="L13" s="41">
+        <v>36</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="52"/>
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="53"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="N14" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="O15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX15" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="O16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/EYZWG9_0409/eyzwg9.xlsx
+++ b/EYZWG9_0409/eyzwg9.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E46A07-31AD-4D42-A99C-CF44D76E35E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806FA935-FF8A-4CA8-A737-7003F6F4C398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{9AE628E0-7C8C-4AEC-ADCA-FC5545A271DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="2" xr2:uid="{9AE628E0-7C8C-4AEC-ADCA-FC5545A271DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tartalomjegyzék" sheetId="3" r:id="rId1"/>
+    <sheet name="1.-2. Feladat" sheetId="1" r:id="rId2"/>
+    <sheet name="3.Feladat" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="252">
   <si>
     <t>Beérk. Idő (ms)</t>
   </si>
@@ -118,13 +120,685 @@
   </si>
   <si>
     <t>Várakozik</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>2. munkalap - 1.-2. Feladat</t>
+  </si>
+  <si>
+    <t>Tartalomjegyzék</t>
+  </si>
+  <si>
+    <t>Operációs rendszerek - 8.Gyakorlat</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>201.</t>
+  </si>
+  <si>
+    <t>200.</t>
+  </si>
+  <si>
+    <t>199.</t>
+  </si>
+  <si>
+    <t>198.</t>
+  </si>
+  <si>
+    <t>197.</t>
+  </si>
+  <si>
+    <t>196.</t>
+  </si>
+  <si>
+    <t>195.</t>
+  </si>
+  <si>
+    <t>194.</t>
+  </si>
+  <si>
+    <t>193.</t>
+  </si>
+  <si>
+    <t>192.</t>
+  </si>
+  <si>
+    <t>191.</t>
+  </si>
+  <si>
+    <t>190.</t>
+  </si>
+  <si>
+    <t>189.</t>
+  </si>
+  <si>
+    <t>188.</t>
+  </si>
+  <si>
+    <t>187.</t>
+  </si>
+  <si>
+    <t>186.</t>
+  </si>
+  <si>
+    <t>185.</t>
+  </si>
+  <si>
+    <t>184.</t>
+  </si>
+  <si>
+    <t>183.</t>
+  </si>
+  <si>
+    <t>182.</t>
+  </si>
+  <si>
+    <t>181.</t>
+  </si>
+  <si>
+    <t>180.</t>
+  </si>
+  <si>
+    <t>179.</t>
+  </si>
+  <si>
+    <t>178.</t>
+  </si>
+  <si>
+    <t>177.</t>
+  </si>
+  <si>
+    <t>176.</t>
+  </si>
+  <si>
+    <t>175.</t>
+  </si>
+  <si>
+    <t>174.</t>
+  </si>
+  <si>
+    <t>173.</t>
+  </si>
+  <si>
+    <t>172.</t>
+  </si>
+  <si>
+    <t>171.</t>
+  </si>
+  <si>
+    <t>170.</t>
+  </si>
+  <si>
+    <t>169.</t>
+  </si>
+  <si>
+    <t>168.</t>
+  </si>
+  <si>
+    <t>167.</t>
+  </si>
+  <si>
+    <t>166.</t>
+  </si>
+  <si>
+    <t>165.</t>
+  </si>
+  <si>
+    <t>164.</t>
+  </si>
+  <si>
+    <t>163.</t>
+  </si>
+  <si>
+    <t>162.</t>
+  </si>
+  <si>
+    <t>161.</t>
+  </si>
+  <si>
+    <t>160.</t>
+  </si>
+  <si>
+    <t>159.</t>
+  </si>
+  <si>
+    <t>158.</t>
+  </si>
+  <si>
+    <t>157.</t>
+  </si>
+  <si>
+    <t>156.</t>
+  </si>
+  <si>
+    <t>155.</t>
+  </si>
+  <si>
+    <t>154.</t>
+  </si>
+  <si>
+    <t>153.</t>
+  </si>
+  <si>
+    <t>152.</t>
+  </si>
+  <si>
+    <t>151.</t>
+  </si>
+  <si>
+    <t>150.</t>
+  </si>
+  <si>
+    <t>149.</t>
+  </si>
+  <si>
+    <t>148.</t>
+  </si>
+  <si>
+    <t>147.</t>
+  </si>
+  <si>
+    <t>146.</t>
+  </si>
+  <si>
+    <t>145.</t>
+  </si>
+  <si>
+    <t>144.</t>
+  </si>
+  <si>
+    <t>143.</t>
+  </si>
+  <si>
+    <t>142.</t>
+  </si>
+  <si>
+    <t>141.</t>
+  </si>
+  <si>
+    <t>140.</t>
+  </si>
+  <si>
+    <t>139.</t>
+  </si>
+  <si>
+    <t>138.</t>
+  </si>
+  <si>
+    <t>137.</t>
+  </si>
+  <si>
+    <t>136.</t>
+  </si>
+  <si>
+    <t>135.</t>
+  </si>
+  <si>
+    <t>134.</t>
+  </si>
+  <si>
+    <t>133.</t>
+  </si>
+  <si>
+    <t>132.</t>
+  </si>
+  <si>
+    <t>131.</t>
+  </si>
+  <si>
+    <t>130.</t>
+  </si>
+  <si>
+    <t>129.</t>
+  </si>
+  <si>
+    <t>128.</t>
+  </si>
+  <si>
+    <t>127.</t>
+  </si>
+  <si>
+    <t>126.</t>
+  </si>
+  <si>
+    <t>125.</t>
+  </si>
+  <si>
+    <t>124.</t>
+  </si>
+  <si>
+    <t>123.</t>
+  </si>
+  <si>
+    <t>122.</t>
+  </si>
+  <si>
+    <t>121.</t>
+  </si>
+  <si>
+    <t>120.</t>
+  </si>
+  <si>
+    <t>119.</t>
+  </si>
+  <si>
+    <t>118.</t>
+  </si>
+  <si>
+    <t>117.</t>
+  </si>
+  <si>
+    <t>116.</t>
+  </si>
+  <si>
+    <t>115.</t>
+  </si>
+  <si>
+    <t>114.</t>
+  </si>
+  <si>
+    <t>113.</t>
+  </si>
+  <si>
+    <t>112.</t>
+  </si>
+  <si>
+    <t>111.</t>
+  </si>
+  <si>
+    <t>110.</t>
+  </si>
+  <si>
+    <t>109.</t>
+  </si>
+  <si>
+    <t>108.</t>
+  </si>
+  <si>
+    <t>107.</t>
+  </si>
+  <si>
+    <t>106.</t>
+  </si>
+  <si>
+    <t>105.</t>
+  </si>
+  <si>
+    <t>104.</t>
+  </si>
+  <si>
+    <t>103.</t>
+  </si>
+  <si>
+    <t>102.</t>
+  </si>
+  <si>
+    <t>101.</t>
+  </si>
+  <si>
+    <t>100.</t>
+  </si>
+  <si>
+    <t>99.</t>
+  </si>
+  <si>
+    <t>98.</t>
+  </si>
+  <si>
+    <t>97.</t>
+  </si>
+  <si>
+    <t>96.</t>
+  </si>
+  <si>
+    <t>95.</t>
+  </si>
+  <si>
+    <t>94.</t>
+  </si>
+  <si>
+    <t>93.</t>
+  </si>
+  <si>
+    <t>92.</t>
+  </si>
+  <si>
+    <t>91.</t>
+  </si>
+  <si>
+    <t>90.</t>
+  </si>
+  <si>
+    <t>89.</t>
+  </si>
+  <si>
+    <t>88.</t>
+  </si>
+  <si>
+    <t>87.</t>
+  </si>
+  <si>
+    <t>86.</t>
+  </si>
+  <si>
+    <t>85.</t>
+  </si>
+  <si>
+    <t>84.</t>
+  </si>
+  <si>
+    <t>83.</t>
+  </si>
+  <si>
+    <t>82.</t>
+  </si>
+  <si>
+    <t>81.</t>
+  </si>
+  <si>
+    <t>80.</t>
+  </si>
+  <si>
+    <t>79.</t>
+  </si>
+  <si>
+    <t>78.</t>
+  </si>
+  <si>
+    <t>77.</t>
+  </si>
+  <si>
+    <t>76.</t>
+  </si>
+  <si>
+    <t>75.</t>
+  </si>
+  <si>
+    <t>74.</t>
+  </si>
+  <si>
+    <t>73.</t>
+  </si>
+  <si>
+    <t>72.</t>
+  </si>
+  <si>
+    <t>71.</t>
+  </si>
+  <si>
+    <t>70.</t>
+  </si>
+  <si>
+    <t>69.</t>
+  </si>
+  <si>
+    <t>68.</t>
+  </si>
+  <si>
+    <t>67.</t>
+  </si>
+  <si>
+    <t>66.</t>
+  </si>
+  <si>
+    <t>65.</t>
+  </si>
+  <si>
+    <t>64.</t>
+  </si>
+  <si>
+    <t>63.</t>
+  </si>
+  <si>
+    <t>62.</t>
+  </si>
+  <si>
+    <t>61.</t>
+  </si>
+  <si>
+    <t>60.</t>
+  </si>
+  <si>
+    <t>59.</t>
+  </si>
+  <si>
+    <t>58.</t>
+  </si>
+  <si>
+    <t>57.</t>
+  </si>
+  <si>
+    <t>56.</t>
+  </si>
+  <si>
+    <t>55.</t>
+  </si>
+  <si>
+    <t>54.</t>
+  </si>
+  <si>
+    <t>53.</t>
+  </si>
+  <si>
+    <t>52.</t>
+  </si>
+  <si>
+    <t>51.</t>
+  </si>
+  <si>
+    <t>50.</t>
+  </si>
+  <si>
+    <t>49.</t>
+  </si>
+  <si>
+    <t>48.</t>
+  </si>
+  <si>
+    <t>47.</t>
+  </si>
+  <si>
+    <t>46.</t>
+  </si>
+  <si>
+    <t>45.</t>
+  </si>
+  <si>
+    <t>44.</t>
+  </si>
+  <si>
+    <t>43.</t>
+  </si>
+  <si>
+    <t>42.</t>
+  </si>
+  <si>
+    <t>41.</t>
+  </si>
+  <si>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>p_usrpri = 50 + (p_cpu / 2) + (p_nice * 2)</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Alapképlet</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>50 + (G1 / 2) + (10 * 2)</t>
+  </si>
+  <si>
+    <t>50 + (0 / 2) + (0 * 2)</t>
+  </si>
+  <si>
+    <t>50 + (1 / 2) + (0 * 2)</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>C processz</t>
+  </si>
+  <si>
+    <t>B processz</t>
+  </si>
+  <si>
+    <t>A processz</t>
+  </si>
+  <si>
+    <t>Running after</t>
+  </si>
+  <si>
+    <t>Running before</t>
+  </si>
+  <si>
+    <t>p_cpu</t>
+  </si>
+  <si>
+    <t>p_usrpi</t>
+  </si>
+  <si>
+    <t>Clock tick</t>
+  </si>
+  <si>
+    <t>Képletek</t>
+  </si>
+  <si>
+    <t>Rescheudle</t>
+  </si>
+  <si>
+    <t>3.munkalap - 3. Feladat RR nélkül</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +852,39 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -217,7 +924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -380,11 +1087,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,33 +1184,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -485,26 +1204,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál 2" xfId="1" xr:uid="{76A3625C-B11F-4793-8921-AA9547C55C99}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,10 +1583,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93954F5E-6C96-4213-B450-0A7BDE532063}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>45756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE8F27-D21D-4B7A-B82C-EC0A10ADE4E8}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -831,7 +1647,7 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
@@ -1004,15 +1820,15 @@
       <c r="N6" s="21"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="60"/>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1022,133 +1838,133 @@
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="5">
         <v>1</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="5">
         <v>2</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="38">
         <v>3</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="5">
         <v>4</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="5">
         <v>5</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="5">
         <v>6</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="5">
         <v>7</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="5">
         <v>8</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="5">
         <v>9</v>
       </c>
-      <c r="X9" s="27">
+      <c r="X9" s="5">
         <v>10</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="5">
         <v>11</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="Z9" s="5">
         <v>12</v>
       </c>
-      <c r="AA9" s="27">
+      <c r="AA9" s="5">
         <v>13</v>
       </c>
-      <c r="AB9" s="27">
+      <c r="AB9" s="5">
         <v>14</v>
       </c>
-      <c r="AC9" s="27">
+      <c r="AC9" s="5">
         <v>15</v>
       </c>
-      <c r="AD9" s="27">
+      <c r="AD9" s="5">
         <v>16</v>
       </c>
-      <c r="AE9" s="27">
+      <c r="AE9" s="5">
         <v>17</v>
       </c>
-      <c r="AF9" s="27">
+      <c r="AF9" s="5">
         <v>18</v>
       </c>
-      <c r="AG9" s="27">
+      <c r="AG9" s="5">
         <v>19</v>
       </c>
-      <c r="AH9" s="27">
+      <c r="AH9" s="5">
         <v>20</v>
       </c>
-      <c r="AI9" s="27">
+      <c r="AI9" s="5">
         <v>21</v>
       </c>
-      <c r="AJ9" s="27">
+      <c r="AJ9" s="5">
         <v>22</v>
       </c>
-      <c r="AK9" s="27">
+      <c r="AK9" s="5">
         <v>23</v>
       </c>
-      <c r="AL9" s="27">
+      <c r="AL9" s="5">
         <v>24</v>
       </c>
-      <c r="AM9" s="27">
+      <c r="AM9" s="5">
         <v>25</v>
       </c>
-      <c r="AN9" s="27">
+      <c r="AN9" s="5">
         <v>26</v>
       </c>
-      <c r="AO9" s="27">
+      <c r="AO9" s="5">
         <v>27</v>
       </c>
-      <c r="AP9" s="27">
+      <c r="AP9" s="5">
         <v>28</v>
       </c>
-      <c r="AQ9" s="27">
+      <c r="AQ9" s="5">
         <v>29</v>
       </c>
-      <c r="AR9" s="27">
+      <c r="AR9" s="5">
         <v>30</v>
       </c>
-      <c r="AS9" s="27">
+      <c r="AS9" s="5">
         <v>31</v>
       </c>
-      <c r="AT9" s="27">
-        <v>32</v>
-      </c>
-      <c r="AU9" s="27">
+      <c r="AT9" s="5">
+        <v>32</v>
+      </c>
+      <c r="AU9" s="5">
         <v>33</v>
       </c>
-      <c r="AV9" s="27">
+      <c r="AV9" s="5">
         <v>34</v>
       </c>
-      <c r="AW9" s="27">
+      <c r="AW9" s="5">
         <v>35</v>
       </c>
-      <c r="AX9" s="29">
+      <c r="AX9" s="6">
         <v>36</v>
       </c>
     </row>
@@ -1168,63 +1984,63 @@
       <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="25">
         <v>0</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="26">
         <v>4</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="26">
         <v>8</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="26">
         <v>12</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="26">
         <v>24</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="27">
         <v>25</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="46"/>
-      <c r="AX10" s="47"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="42"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -1242,63 +2058,63 @@
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="28">
         <v>4</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="29">
         <v>8</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="29">
         <v>16</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="29">
         <v>20</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="29">
         <v>29</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="30">
         <v>30</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="46"/>
-      <c r="AU11" s="46"/>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="46"/>
-      <c r="AX11" s="47"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="41"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="42"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1316,63 +2132,63 @@
       <c r="F12" s="1">
         <v>9</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="31">
         <v>12</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="32">
         <v>16</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="32">
         <v>25</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="32">
         <v>29</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="32">
         <v>34</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="33">
         <v>35</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="46"/>
-      <c r="AT12" s="46"/>
-      <c r="AU12" s="46"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="47"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="42"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1384,72 +2200,72 @@
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="37">
         <v>11</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="37">
         <v>9</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="34">
         <v>20</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="35">
         <v>24</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="35">
         <v>30</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="35">
         <v>34</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="35">
         <v>35</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="36">
         <v>36</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="53"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AX13" s="48"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="N14" s="54" t="s">
+      <c r="N14" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O14" s="17" t="s">
@@ -1760,7 +2576,7 @@
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="25"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1768,4 +2584,6580 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35228AFC-2669-4531-B0F4-93E7DBA7D2AB}">
+  <dimension ref="A1:L204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K200" sqref="K200"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="1">
+        <f>50 + (C3 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B67" si="0">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D67" si="1">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F67" si="2">50 + (G4 / 2) + (10 * 2)</f>
+        <v>70.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>71.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>73.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>75.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>76.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="G17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C18" s="52">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="52">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="G18" s="52">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C19" s="52">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="52">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="G19" s="52">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C20" s="52">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E20" s="52">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>78.5</v>
+      </c>
+      <c r="G20" s="52">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C21" s="52">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="52">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="G21" s="52">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C22" s="52">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E22" s="52">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>79.5</v>
+      </c>
+      <c r="G22" s="52">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C23" s="52">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="52">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G23" s="52">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C24" s="52">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E24" s="52">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>80.5</v>
+      </c>
+      <c r="G24" s="52">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C25" s="52">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E25" s="52">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G25" s="52">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C26" s="52">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E26" s="52">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>81.5</v>
+      </c>
+      <c r="G26" s="52">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C27" s="52">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="52">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="G27" s="52">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C28" s="52">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E28" s="52">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+      <c r="G28" s="52">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C29" s="52">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E29" s="52">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="G29" s="52">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C30" s="52">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="52">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>83.5</v>
+      </c>
+      <c r="G30" s="52">
+        <v>27</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C31" s="52">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E31" s="52">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="G31" s="52">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C32" s="52">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E32" s="52">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>84.5</v>
+      </c>
+      <c r="G32" s="52">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C33" s="52">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E33" s="52">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="G33" s="52">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C34" s="52">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E34" s="52">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>85.5</v>
+      </c>
+      <c r="G34" s="52">
+        <v>31</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C35" s="52">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E35" s="52">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G35" s="52">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C36" s="52">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E36" s="52">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>86.5</v>
+      </c>
+      <c r="G36" s="52">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C37" s="52">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E37" s="52">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="G37" s="52">
+        <v>34</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C38" s="52">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E38" s="52">
+        <v>35</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+      <c r="G38" s="52">
+        <v>35</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C39" s="52">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E39" s="52">
+        <v>36</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G39" s="52">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C40" s="52">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E40" s="52">
+        <v>37</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>88.5</v>
+      </c>
+      <c r="G40" s="52">
+        <v>37</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C41" s="52">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E41" s="52">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="G41" s="52">
+        <v>38</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C42" s="52">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E42" s="52">
+        <v>39</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="G42" s="52">
+        <v>39</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C43" s="52">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E43" s="52">
+        <v>40</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="G43" s="52">
+        <v>40</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C44" s="52">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E44" s="52">
+        <v>41</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>90.5</v>
+      </c>
+      <c r="G44" s="52">
+        <v>41</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C45" s="52">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E45" s="52">
+        <v>42</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="G45" s="52">
+        <v>42</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C46" s="52">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E46" s="52">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>91.5</v>
+      </c>
+      <c r="G46" s="52">
+        <v>43</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C47" s="52">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E47" s="52">
+        <v>44</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G47" s="52">
+        <v>44</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C48" s="52">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E48" s="52">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G48" s="52">
+        <v>45</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C49" s="52">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E49" s="52">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="G49" s="52">
+        <v>46</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C50" s="52">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E50" s="52">
+        <v>47</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>93.5</v>
+      </c>
+      <c r="G50" s="52">
+        <v>47</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C51" s="52">
+        <v>48</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E51" s="52">
+        <v>48</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="G51" s="52">
+        <v>48</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C52" s="52">
+        <v>49</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E52" s="52">
+        <v>49</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>94.5</v>
+      </c>
+      <c r="G52" s="52">
+        <v>49</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C53" s="52">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E53" s="52">
+        <v>50</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G53" s="52">
+        <v>50</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C54" s="52">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E54" s="52">
+        <v>51</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>95.5</v>
+      </c>
+      <c r="G54" s="52">
+        <v>51</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C55" s="52">
+        <v>52</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E55" s="52">
+        <v>52</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="G55" s="52">
+        <v>52</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C56" s="52">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E56" s="52">
+        <v>53</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>96.5</v>
+      </c>
+      <c r="G56" s="52">
+        <v>53</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C57" s="52">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E57" s="52">
+        <v>54</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="G57" s="52">
+        <v>54</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C58" s="52">
+        <v>55</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E58" s="52">
+        <v>55</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>97.5</v>
+      </c>
+      <c r="G58" s="52">
+        <v>55</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C59" s="52">
+        <v>56</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E59" s="52">
+        <v>56</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G59" s="52">
+        <v>56</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C60" s="52">
+        <v>57</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E60" s="52">
+        <v>57</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>98.5</v>
+      </c>
+      <c r="G60" s="52">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C61" s="52">
+        <v>58</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E61" s="52">
+        <v>58</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="G61" s="52">
+        <v>58</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C62" s="52">
+        <v>59</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E62" s="52">
+        <v>59</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>99.5</v>
+      </c>
+      <c r="G62" s="52">
+        <v>59</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C63" s="52">
+        <v>60</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E63" s="52">
+        <v>60</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G63" s="52">
+        <v>60</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C64" s="52">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E64" s="52">
+        <v>61</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>100.5</v>
+      </c>
+      <c r="G64" s="52">
+        <v>61</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C65" s="52">
+        <v>62</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E65" s="52">
+        <v>62</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G65" s="52">
+        <v>62</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C66" s="52">
+        <v>63</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E66" s="52">
+        <v>63</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="2"/>
+        <v>101.5</v>
+      </c>
+      <c r="G66" s="52">
+        <v>63</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="C67" s="52">
+        <v>64</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E67" s="52">
+        <v>64</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="G67" s="52">
+        <v>64</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B131" si="3">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C68" s="52">
+        <v>65</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" ref="D68:D131" si="4">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E68" s="52">
+        <v>65</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:F131" si="5">50 + (G68 / 2) + (10 * 2)</f>
+        <v>102.5</v>
+      </c>
+      <c r="G68" s="52">
+        <v>65</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C69" s="52">
+        <v>66</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E69" s="52">
+        <v>66</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="G69" s="52">
+        <v>66</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C70" s="52">
+        <v>67</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E70" s="52">
+        <v>67</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="5"/>
+        <v>103.5</v>
+      </c>
+      <c r="G70" s="52">
+        <v>67</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C71" s="52">
+        <v>68</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E71" s="52">
+        <v>68</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="G71" s="52">
+        <v>68</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C72" s="52">
+        <v>69</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E72" s="52">
+        <v>69</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="5"/>
+        <v>104.5</v>
+      </c>
+      <c r="G72" s="52">
+        <v>69</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C73" s="52">
+        <v>70</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E73" s="52">
+        <v>70</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="G73" s="52">
+        <v>70</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C74" s="52">
+        <v>71</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E74" s="52">
+        <v>71</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="5"/>
+        <v>105.5</v>
+      </c>
+      <c r="G74" s="52">
+        <v>71</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C75" s="52">
+        <v>72</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E75" s="52">
+        <v>72</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G75" s="52">
+        <v>72</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C76" s="52">
+        <v>73</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E76" s="52">
+        <v>73</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="5"/>
+        <v>106.5</v>
+      </c>
+      <c r="G76" s="52">
+        <v>73</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C77" s="52">
+        <v>74</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E77" s="52">
+        <v>74</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="G77" s="52">
+        <v>74</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C78" s="52">
+        <v>75</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E78" s="52">
+        <v>75</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="5"/>
+        <v>107.5</v>
+      </c>
+      <c r="G78" s="52">
+        <v>75</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C79" s="52">
+        <v>76</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E79" s="52">
+        <v>76</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="G79" s="52">
+        <v>76</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C80" s="52">
+        <v>77</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E80" s="52">
+        <v>77</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="5"/>
+        <v>108.5</v>
+      </c>
+      <c r="G80" s="52">
+        <v>77</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C81" s="52">
+        <v>78</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E81" s="52">
+        <v>78</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="G81" s="52">
+        <v>78</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C82" s="52">
+        <v>79</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E82" s="52">
+        <v>79</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="5"/>
+        <v>109.5</v>
+      </c>
+      <c r="G82" s="52">
+        <v>79</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C83" s="52">
+        <v>80</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E83" s="52">
+        <v>80</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="G83" s="52">
+        <v>80</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C84" s="52">
+        <v>81</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E84" s="52">
+        <v>81</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="5"/>
+        <v>110.5</v>
+      </c>
+      <c r="G84" s="52">
+        <v>81</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C85" s="52">
+        <v>82</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E85" s="52">
+        <v>82</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="G85" s="52">
+        <v>82</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C86" s="52">
+        <v>83</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E86" s="52">
+        <v>83</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="5"/>
+        <v>111.5</v>
+      </c>
+      <c r="G86" s="52">
+        <v>83</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C87" s="52">
+        <v>84</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E87" s="52">
+        <v>84</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="G87" s="52">
+        <v>84</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C88" s="52">
+        <v>85</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E88" s="52">
+        <v>85</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="5"/>
+        <v>112.5</v>
+      </c>
+      <c r="G88" s="52">
+        <v>85</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C89" s="52">
+        <v>86</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E89" s="52">
+        <v>86</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="G89" s="52">
+        <v>86</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C90" s="52">
+        <v>87</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E90" s="52">
+        <v>87</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="5"/>
+        <v>113.5</v>
+      </c>
+      <c r="G90" s="52">
+        <v>87</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C91" s="52">
+        <v>88</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E91" s="52">
+        <v>88</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="G91" s="52">
+        <v>88</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C92" s="52">
+        <v>89</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E92" s="52">
+        <v>89</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="5"/>
+        <v>114.5</v>
+      </c>
+      <c r="G92" s="52">
+        <v>89</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C93" s="52">
+        <v>90</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E93" s="52">
+        <v>90</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="G93" s="52">
+        <v>90</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C94" s="52">
+        <v>91</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E94" s="52">
+        <v>91</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="5"/>
+        <v>115.5</v>
+      </c>
+      <c r="G94" s="52">
+        <v>91</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C95" s="52">
+        <v>92</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E95" s="52">
+        <v>92</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="G95" s="52">
+        <v>92</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C96" s="52">
+        <v>93</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E96" s="52">
+        <v>93</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="5"/>
+        <v>116.5</v>
+      </c>
+      <c r="G96" s="52">
+        <v>93</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C97" s="52">
+        <v>94</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E97" s="52">
+        <v>94</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="G97" s="52">
+        <v>94</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C98" s="52">
+        <v>95</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E98" s="52">
+        <v>95</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="5"/>
+        <v>117.5</v>
+      </c>
+      <c r="G98" s="52">
+        <v>95</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C99" s="52">
+        <v>96</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E99" s="52">
+        <v>96</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="G99" s="52">
+        <v>96</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C100" s="52">
+        <v>97</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E100" s="52">
+        <v>97</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="5"/>
+        <v>118.5</v>
+      </c>
+      <c r="G100" s="52">
+        <v>97</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C101" s="52">
+        <v>98</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E101" s="52">
+        <v>98</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="G101" s="52">
+        <v>98</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C102" s="52">
+        <v>99</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E102" s="52">
+        <v>99</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="5"/>
+        <v>119.5</v>
+      </c>
+      <c r="G102" s="52">
+        <v>99</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C103" s="52">
+        <v>100</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E103" s="52">
+        <v>100</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="G103" s="52">
+        <v>100</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C104" s="52">
+        <v>101</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E104" s="52">
+        <v>101</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="5"/>
+        <v>120.5</v>
+      </c>
+      <c r="G104" s="52">
+        <v>101</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C105" s="52">
+        <v>102</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E105" s="52">
+        <v>102</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="G105" s="52">
+        <v>102</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C106" s="52">
+        <v>103</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E106" s="52">
+        <v>103</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="5"/>
+        <v>121.5</v>
+      </c>
+      <c r="G106" s="52">
+        <v>103</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C107" s="52">
+        <v>104</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E107" s="52">
+        <v>104</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="G107" s="52">
+        <v>104</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C108" s="52">
+        <v>105</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E108" s="52">
+        <v>105</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="5"/>
+        <v>122.5</v>
+      </c>
+      <c r="G108" s="52">
+        <v>105</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C109" s="52">
+        <v>106</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E109" s="52">
+        <v>106</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="G109" s="52">
+        <v>106</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C110" s="52">
+        <v>107</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E110" s="52">
+        <v>107</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="5"/>
+        <v>123.5</v>
+      </c>
+      <c r="G110" s="52">
+        <v>107</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C111" s="52">
+        <v>108</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E111" s="52">
+        <v>108</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="G111" s="52">
+        <v>108</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C112" s="52">
+        <v>109</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E112" s="52">
+        <v>109</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="5"/>
+        <v>124.5</v>
+      </c>
+      <c r="G112" s="52">
+        <v>109</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C113" s="52">
+        <v>110</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E113" s="52">
+        <v>110</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="G113" s="52">
+        <v>110</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C114" s="52">
+        <v>111</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E114" s="52">
+        <v>111</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="5"/>
+        <v>125.5</v>
+      </c>
+      <c r="G114" s="52">
+        <v>111</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C115" s="52">
+        <v>112</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E115" s="52">
+        <v>112</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="G115" s="52">
+        <v>112</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C116" s="52">
+        <v>113</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E116" s="52">
+        <v>113</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="5"/>
+        <v>126.5</v>
+      </c>
+      <c r="G116" s="52">
+        <v>113</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C117" s="52">
+        <v>114</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E117" s="52">
+        <v>114</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="G117" s="52">
+        <v>114</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C118" s="52">
+        <v>115</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E118" s="52">
+        <v>115</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="5"/>
+        <v>127.5</v>
+      </c>
+      <c r="G118" s="52">
+        <v>115</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C119" s="52">
+        <v>116</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E119" s="52">
+        <v>116</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="G119" s="52">
+        <v>116</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C120" s="52">
+        <v>117</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E120" s="52">
+        <v>117</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="5"/>
+        <v>128.5</v>
+      </c>
+      <c r="G120" s="52">
+        <v>117</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C121" s="52">
+        <v>118</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E121" s="52">
+        <v>118</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="G121" s="52">
+        <v>118</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C122" s="52">
+        <v>119</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E122" s="52">
+        <v>119</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="5"/>
+        <v>129.5</v>
+      </c>
+      <c r="G122" s="52">
+        <v>119</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C123" s="52">
+        <v>120</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E123" s="52">
+        <v>120</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="G123" s="52">
+        <v>120</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C124" s="52">
+        <v>121</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E124" s="52">
+        <v>121</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="5"/>
+        <v>130.5</v>
+      </c>
+      <c r="G124" s="52">
+        <v>121</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C125" s="52">
+        <v>122</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E125" s="52">
+        <v>122</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+      <c r="G125" s="52">
+        <v>122</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C126" s="52">
+        <v>123</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E126" s="52">
+        <v>123</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="5"/>
+        <v>131.5</v>
+      </c>
+      <c r="G126" s="52">
+        <v>123</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C127" s="52">
+        <v>124</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E127" s="52">
+        <v>124</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="G127" s="52">
+        <v>124</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C128" s="52">
+        <v>125</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E128" s="52">
+        <v>125</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="5"/>
+        <v>132.5</v>
+      </c>
+      <c r="G128" s="52">
+        <v>125</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C129" s="52">
+        <v>126</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E129" s="52">
+        <v>126</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="G129" s="52">
+        <v>126</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C130" s="52">
+        <v>127</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E130" s="52">
+        <v>127</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="5"/>
+        <v>133.5</v>
+      </c>
+      <c r="G130" s="52">
+        <v>127</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C131" s="52">
+        <v>128</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E131" s="52">
+        <v>128</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="G131" s="52">
+        <v>128</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" ref="B132:B195" si="6">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C132" s="52">
+        <v>129</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" ref="D132:D195" si="7">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E132" s="52">
+        <v>129</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" ref="F132:F195" si="8">50 + (G132 / 2) + (10 * 2)</f>
+        <v>134.5</v>
+      </c>
+      <c r="G132" s="52">
+        <v>129</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B133" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C133" s="52">
+        <v>130</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E133" s="52">
+        <v>130</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="G133" s="52">
+        <v>130</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C134" s="52">
+        <v>131</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E134" s="52">
+        <v>131</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="8"/>
+        <v>135.5</v>
+      </c>
+      <c r="G134" s="52">
+        <v>131</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C135" s="52">
+        <v>132</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E135" s="52">
+        <v>132</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="8"/>
+        <v>136</v>
+      </c>
+      <c r="G135" s="52">
+        <v>132</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C136" s="52">
+        <v>133</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E136" s="52">
+        <v>133</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="8"/>
+        <v>136.5</v>
+      </c>
+      <c r="G136" s="52">
+        <v>133</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C137" s="52">
+        <v>134</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E137" s="52">
+        <v>134</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+      <c r="G137" s="52">
+        <v>134</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B138" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C138" s="52">
+        <v>135</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E138" s="52">
+        <v>135</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="8"/>
+        <v>137.5</v>
+      </c>
+      <c r="G138" s="52">
+        <v>135</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B139" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C139" s="52">
+        <v>136</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E139" s="52">
+        <v>136</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="G139" s="52">
+        <v>136</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C140" s="52">
+        <v>137</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E140" s="52">
+        <v>137</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="8"/>
+        <v>138.5</v>
+      </c>
+      <c r="G140" s="52">
+        <v>137</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C141" s="52">
+        <v>138</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E141" s="52">
+        <v>138</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="8"/>
+        <v>139</v>
+      </c>
+      <c r="G141" s="52">
+        <v>138</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B142" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C142" s="52">
+        <v>139</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E142" s="52">
+        <v>139</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="8"/>
+        <v>139.5</v>
+      </c>
+      <c r="G142" s="52">
+        <v>139</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C143" s="52">
+        <v>140</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E143" s="52">
+        <v>140</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="G143" s="52">
+        <v>140</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B144" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C144" s="52">
+        <v>141</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E144" s="52">
+        <v>141</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="8"/>
+        <v>140.5</v>
+      </c>
+      <c r="G144" s="52">
+        <v>141</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B145" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C145" s="52">
+        <v>142</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E145" s="52">
+        <v>142</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="8"/>
+        <v>141</v>
+      </c>
+      <c r="G145" s="52">
+        <v>142</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C146" s="52">
+        <v>143</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E146" s="52">
+        <v>143</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="8"/>
+        <v>141.5</v>
+      </c>
+      <c r="G146" s="52">
+        <v>143</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B147" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C147" s="52">
+        <v>144</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E147" s="52">
+        <v>144</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="G147" s="52">
+        <v>144</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C148" s="52">
+        <v>145</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E148" s="52">
+        <v>145</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="8"/>
+        <v>142.5</v>
+      </c>
+      <c r="G148" s="52">
+        <v>145</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C149" s="52">
+        <v>146</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E149" s="52">
+        <v>146</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+      <c r="G149" s="52">
+        <v>146</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C150" s="52">
+        <v>147</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E150" s="52">
+        <v>147</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="8"/>
+        <v>143.5</v>
+      </c>
+      <c r="G150" s="52">
+        <v>147</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C151" s="52">
+        <v>148</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E151" s="52">
+        <v>148</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="G151" s="52">
+        <v>148</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C152" s="52">
+        <v>149</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E152" s="52">
+        <v>149</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="8"/>
+        <v>144.5</v>
+      </c>
+      <c r="G152" s="52">
+        <v>149</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B153" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C153" s="52">
+        <v>150</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E153" s="52">
+        <v>150</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="8"/>
+        <v>145</v>
+      </c>
+      <c r="G153" s="52">
+        <v>150</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B154" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C154" s="52">
+        <v>151</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E154" s="52">
+        <v>151</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="8"/>
+        <v>145.5</v>
+      </c>
+      <c r="G154" s="52">
+        <v>151</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C155" s="52">
+        <v>152</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E155" s="52">
+        <v>152</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="G155" s="52">
+        <v>152</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B156" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C156" s="52">
+        <v>153</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E156" s="52">
+        <v>153</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="8"/>
+        <v>146.5</v>
+      </c>
+      <c r="G156" s="52">
+        <v>153</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C157" s="52">
+        <v>154</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E157" s="52">
+        <v>154</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+      <c r="G157" s="52">
+        <v>154</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C158" s="52">
+        <v>155</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E158" s="52">
+        <v>155</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="8"/>
+        <v>147.5</v>
+      </c>
+      <c r="G158" s="52">
+        <v>155</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B159" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C159" s="52">
+        <v>156</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E159" s="52">
+        <v>156</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="8"/>
+        <v>148</v>
+      </c>
+      <c r="G159" s="52">
+        <v>156</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C160" s="52">
+        <v>157</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E160" s="52">
+        <v>157</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="8"/>
+        <v>148.5</v>
+      </c>
+      <c r="G160" s="52">
+        <v>157</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B161" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C161" s="52">
+        <v>158</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E161" s="52">
+        <v>158</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+      <c r="G161" s="52">
+        <v>158</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B162" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C162" s="52">
+        <v>159</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E162" s="52">
+        <v>159</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="8"/>
+        <v>149.5</v>
+      </c>
+      <c r="G162" s="52">
+        <v>159</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B163" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C163" s="52">
+        <v>160</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E163" s="52">
+        <v>160</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="G163" s="52">
+        <v>160</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B164" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C164" s="52">
+        <v>161</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E164" s="52">
+        <v>161</v>
+      </c>
+      <c r="F164" s="1">
+        <f t="shared" si="8"/>
+        <v>150.5</v>
+      </c>
+      <c r="G164" s="52">
+        <v>161</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B165" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C165" s="52">
+        <v>162</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E165" s="52">
+        <v>162</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="G165" s="52">
+        <v>162</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B166" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C166" s="52">
+        <v>163</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E166" s="52">
+        <v>163</v>
+      </c>
+      <c r="F166" s="1">
+        <f t="shared" si="8"/>
+        <v>151.5</v>
+      </c>
+      <c r="G166" s="52">
+        <v>163</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C167" s="52">
+        <v>164</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E167" s="52">
+        <v>164</v>
+      </c>
+      <c r="F167" s="1">
+        <f t="shared" si="8"/>
+        <v>152</v>
+      </c>
+      <c r="G167" s="52">
+        <v>164</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B168" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C168" s="52">
+        <v>165</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E168" s="52">
+        <v>165</v>
+      </c>
+      <c r="F168" s="1">
+        <f t="shared" si="8"/>
+        <v>152.5</v>
+      </c>
+      <c r="G168" s="52">
+        <v>165</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B169" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C169" s="52">
+        <v>166</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E169" s="52">
+        <v>166</v>
+      </c>
+      <c r="F169" s="1">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+      <c r="G169" s="52">
+        <v>166</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B170" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C170" s="52">
+        <v>167</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E170" s="52">
+        <v>167</v>
+      </c>
+      <c r="F170" s="1">
+        <f t="shared" si="8"/>
+        <v>153.5</v>
+      </c>
+      <c r="G170" s="52">
+        <v>167</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C171" s="52">
+        <v>168</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E171" s="52">
+        <v>168</v>
+      </c>
+      <c r="F171" s="1">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+      <c r="G171" s="52">
+        <v>168</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B172" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C172" s="52">
+        <v>169</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E172" s="52">
+        <v>169</v>
+      </c>
+      <c r="F172" s="1">
+        <f t="shared" si="8"/>
+        <v>154.5</v>
+      </c>
+      <c r="G172" s="52">
+        <v>169</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C173" s="52">
+        <v>170</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E173" s="52">
+        <v>170</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" si="8"/>
+        <v>155</v>
+      </c>
+      <c r="G173" s="52">
+        <v>170</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B174" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C174" s="52">
+        <v>171</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E174" s="52">
+        <v>171</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="shared" si="8"/>
+        <v>155.5</v>
+      </c>
+      <c r="G174" s="52">
+        <v>171</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B175" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C175" s="52">
+        <v>172</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E175" s="52">
+        <v>172</v>
+      </c>
+      <c r="F175" s="1">
+        <f t="shared" si="8"/>
+        <v>156</v>
+      </c>
+      <c r="G175" s="52">
+        <v>172</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B176" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C176" s="52">
+        <v>173</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E176" s="52">
+        <v>173</v>
+      </c>
+      <c r="F176" s="1">
+        <f t="shared" si="8"/>
+        <v>156.5</v>
+      </c>
+      <c r="G176" s="52">
+        <v>173</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B177" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C177" s="52">
+        <v>174</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E177" s="52">
+        <v>174</v>
+      </c>
+      <c r="F177" s="1">
+        <f t="shared" si="8"/>
+        <v>157</v>
+      </c>
+      <c r="G177" s="52">
+        <v>174</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B178" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C178" s="52">
+        <v>175</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E178" s="52">
+        <v>175</v>
+      </c>
+      <c r="F178" s="1">
+        <f t="shared" si="8"/>
+        <v>157.5</v>
+      </c>
+      <c r="G178" s="52">
+        <v>175</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B179" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C179" s="52">
+        <v>176</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E179" s="52">
+        <v>176</v>
+      </c>
+      <c r="F179" s="1">
+        <f t="shared" si="8"/>
+        <v>158</v>
+      </c>
+      <c r="G179" s="52">
+        <v>176</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C180" s="52">
+        <v>177</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E180" s="52">
+        <v>177</v>
+      </c>
+      <c r="F180" s="1">
+        <f t="shared" si="8"/>
+        <v>158.5</v>
+      </c>
+      <c r="G180" s="52">
+        <v>177</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B181" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C181" s="52">
+        <v>178</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E181" s="52">
+        <v>178</v>
+      </c>
+      <c r="F181" s="1">
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="G181" s="52">
+        <v>178</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C182" s="52">
+        <v>179</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E182" s="52">
+        <v>179</v>
+      </c>
+      <c r="F182" s="1">
+        <f t="shared" si="8"/>
+        <v>159.5</v>
+      </c>
+      <c r="G182" s="52">
+        <v>179</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B183" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C183" s="52">
+        <v>180</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E183" s="52">
+        <v>180</v>
+      </c>
+      <c r="F183" s="1">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="G183" s="52">
+        <v>180</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B184" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C184" s="52">
+        <v>181</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E184" s="52">
+        <v>181</v>
+      </c>
+      <c r="F184" s="1">
+        <f t="shared" si="8"/>
+        <v>160.5</v>
+      </c>
+      <c r="G184" s="52">
+        <v>181</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C185" s="52">
+        <v>182</v>
+      </c>
+      <c r="D185" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E185" s="52">
+        <v>182</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="G185" s="52">
+        <v>182</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B186" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C186" s="52">
+        <v>183</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E186" s="52">
+        <v>183</v>
+      </c>
+      <c r="F186" s="1">
+        <f t="shared" si="8"/>
+        <v>161.5</v>
+      </c>
+      <c r="G186" s="52">
+        <v>183</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B187" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C187" s="52">
+        <v>184</v>
+      </c>
+      <c r="D187" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E187" s="52">
+        <v>184</v>
+      </c>
+      <c r="F187" s="1">
+        <f t="shared" si="8"/>
+        <v>162</v>
+      </c>
+      <c r="G187" s="52">
+        <v>184</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C188" s="52">
+        <v>185</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E188" s="52">
+        <v>185</v>
+      </c>
+      <c r="F188" s="1">
+        <f t="shared" si="8"/>
+        <v>162.5</v>
+      </c>
+      <c r="G188" s="52">
+        <v>185</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B189" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C189" s="52">
+        <v>186</v>
+      </c>
+      <c r="D189" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E189" s="52">
+        <v>186</v>
+      </c>
+      <c r="F189" s="1">
+        <f t="shared" si="8"/>
+        <v>163</v>
+      </c>
+      <c r="G189" s="52">
+        <v>186</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B190" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C190" s="52">
+        <v>187</v>
+      </c>
+      <c r="D190" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E190" s="52">
+        <v>187</v>
+      </c>
+      <c r="F190" s="1">
+        <f t="shared" si="8"/>
+        <v>163.5</v>
+      </c>
+      <c r="G190" s="52">
+        <v>187</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B191" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C191" s="52">
+        <v>188</v>
+      </c>
+      <c r="D191" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E191" s="52">
+        <v>188</v>
+      </c>
+      <c r="F191" s="1">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="G191" s="52">
+        <v>188</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B192" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C192" s="52">
+        <v>189</v>
+      </c>
+      <c r="D192" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E192" s="52">
+        <v>189</v>
+      </c>
+      <c r="F192" s="1">
+        <f t="shared" si="8"/>
+        <v>164.5</v>
+      </c>
+      <c r="G192" s="52">
+        <v>189</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B193" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C193" s="52">
+        <v>190</v>
+      </c>
+      <c r="D193" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E193" s="52">
+        <v>190</v>
+      </c>
+      <c r="F193" s="1">
+        <f t="shared" si="8"/>
+        <v>165</v>
+      </c>
+      <c r="G193" s="52">
+        <v>190</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B194" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C194" s="52">
+        <v>191</v>
+      </c>
+      <c r="D194" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E194" s="52">
+        <v>191</v>
+      </c>
+      <c r="F194" s="1">
+        <f t="shared" si="8"/>
+        <v>165.5</v>
+      </c>
+      <c r="G194" s="52">
+        <v>191</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B195" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C195" s="52">
+        <v>192</v>
+      </c>
+      <c r="D195" s="1">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E195" s="52">
+        <v>192</v>
+      </c>
+      <c r="F195" s="1">
+        <f t="shared" si="8"/>
+        <v>166</v>
+      </c>
+      <c r="G195" s="52">
+        <v>192</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B196" s="1">
+        <f t="shared" ref="B196:B204" si="9">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C196" s="52">
+        <v>193</v>
+      </c>
+      <c r="D196" s="1">
+        <f t="shared" ref="D196:D204" si="10">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E196" s="52">
+        <v>193</v>
+      </c>
+      <c r="F196" s="1">
+        <f t="shared" ref="F196:F204" si="11">50 + (G196 / 2) + (10 * 2)</f>
+        <v>166.5</v>
+      </c>
+      <c r="G196" s="52">
+        <v>193</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C197" s="52">
+        <v>194</v>
+      </c>
+      <c r="D197" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E197" s="52">
+        <v>194</v>
+      </c>
+      <c r="F197" s="1">
+        <f t="shared" si="11"/>
+        <v>167</v>
+      </c>
+      <c r="G197" s="52">
+        <v>194</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B198" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C198" s="52">
+        <v>195</v>
+      </c>
+      <c r="D198" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E198" s="52">
+        <v>195</v>
+      </c>
+      <c r="F198" s="1">
+        <f t="shared" si="11"/>
+        <v>167.5</v>
+      </c>
+      <c r="G198" s="52">
+        <v>195</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B199" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C199" s="52">
+        <v>196</v>
+      </c>
+      <c r="D199" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E199" s="52">
+        <v>196</v>
+      </c>
+      <c r="F199" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="G199" s="52">
+        <v>196</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C200" s="52">
+        <v>197</v>
+      </c>
+      <c r="D200" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E200" s="52">
+        <v>197</v>
+      </c>
+      <c r="F200" s="1">
+        <f t="shared" si="11"/>
+        <v>168.5</v>
+      </c>
+      <c r="G200" s="52">
+        <v>197</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B201" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C201" s="52">
+        <v>198</v>
+      </c>
+      <c r="D201" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E201" s="52">
+        <v>198</v>
+      </c>
+      <c r="F201" s="1">
+        <f t="shared" si="11"/>
+        <v>169</v>
+      </c>
+      <c r="G201" s="52">
+        <v>198</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B202" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C202" s="52">
+        <v>199</v>
+      </c>
+      <c r="D202" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E202" s="52">
+        <v>199</v>
+      </c>
+      <c r="F202" s="1">
+        <f t="shared" si="11"/>
+        <v>169.5</v>
+      </c>
+      <c r="G202" s="52">
+        <v>199</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C203" s="52">
+        <v>200</v>
+      </c>
+      <c r="D203" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E203" s="52">
+        <v>200</v>
+      </c>
+      <c r="F203" s="1">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="G203" s="52">
+        <v>200</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C204" s="52">
+        <v>201</v>
+      </c>
+      <c r="D204" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E204" s="52">
+        <v>201</v>
+      </c>
+      <c r="F204" s="1">
+        <f t="shared" si="11"/>
+        <v>170.5</v>
+      </c>
+      <c r="G204" s="52">
+        <v>201</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EYZWG9_0409/eyzwg9.xlsx
+++ b/EYZWG9_0409/eyzwg9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806FA935-FF8A-4CA8-A737-7003F6F4C398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCA6D4-E9C1-43CC-95EC-1642C7CA45C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="2" xr2:uid="{9AE628E0-7C8C-4AEC-ADCA-FC5545A271DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="1" xr2:uid="{9AE628E0-7C8C-4AEC-ADCA-FC5545A271DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tartalomjegyzék" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="252">
   <si>
     <t>Beérk. Idő (ms)</t>
   </si>
@@ -798,7 +798,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +884,14 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1203,7 +1211,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,6 +1276,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1601,7 +1609,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1611,17 +1619,17 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="57">
         <v>45756</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>251</v>
       </c>
     </row>
@@ -1634,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE8F27-D21D-4B7A-B82C-EC0A10ADE4E8}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,15 +1828,15 @@
       <c r="N6" s="21"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="59"/>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1865,7 +1873,7 @@
       <c r="P9" s="5">
         <v>2</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="24">
         <v>3</v>
       </c>
       <c r="R9" s="5">
@@ -2002,45 +2010,45 @@
       <c r="L10" s="27">
         <v>25</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="42"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="40"/>
+      <c r="AU10" s="40"/>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="41"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2076,45 +2084,45 @@
       <c r="L11" s="30">
         <v>30</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="43"/>
-      <c r="AR11" s="43"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="42"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="41"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -2150,45 +2158,45 @@
       <c r="L12" s="33">
         <v>35</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="42"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="41"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -2224,48 +2232,48 @@
       <c r="L13" s="36">
         <v>36</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="48"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="47"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="N14" s="49" t="s">
+      <c r="N14" s="48" t="s">
         <v>27</v>
       </c>
       <c r="O14" s="17" t="s">
@@ -2278,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14" s="17" t="s">
         <v>2</v>
@@ -2290,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W14" s="17" t="s">
         <v>3</v>
@@ -2338,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="AL14" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM14" s="17" t="s">
         <v>3</v>
@@ -2388,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S15" s="17" t="s">
         <v>4</v>
@@ -2400,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>4</v>
@@ -2412,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="Z15" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="17" t="s">
         <v>3</v>
@@ -2424,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE15" s="17" t="s">
         <v>4</v>
@@ -2448,10 +2456,10 @@
         <v>3</v>
       </c>
       <c r="AL15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="AM15" s="17" t="s">
-        <v>5</v>
       </c>
       <c r="AN15" s="17" t="s">
         <v>3</v>
@@ -2463,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="AQ15" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR15" s="17" t="s">
         <v>4</v>
@@ -2497,7 +2505,9 @@
       <c r="Q16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="17"/>
+      <c r="R16" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="S16" s="17" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2517,9 @@
       <c r="U16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V16" s="17"/>
+      <c r="V16" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="W16" s="17" t="s">
         <v>5</v>
       </c>
@@ -2517,7 +2529,9 @@
       <c r="Y16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="AA16" s="17" t="s">
         <v>5</v>
       </c>
@@ -2527,7 +2541,9 @@
       <c r="AC16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD16" s="17"/>
+      <c r="AD16" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="AE16" s="17" t="s">
         <v>5</v>
       </c>
@@ -2537,7 +2553,9 @@
       <c r="AG16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AH16" s="17"/>
+      <c r="AH16" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="AI16" s="17" t="s">
         <v>4</v>
       </c>
@@ -2547,8 +2565,12 @@
       <c r="AK16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
+      <c r="AL16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="AN16" s="17" t="s">
         <v>5</v>
       </c>
@@ -2558,8 +2580,12 @@
       <c r="AP16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
+      <c r="AQ16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR16" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="AS16" s="17" t="s">
         <v>4</v>
       </c>
@@ -2569,8 +2595,12 @@
       <c r="AU16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
+      <c r="AV16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW16" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="AX16" s="17" t="s">
         <v>4</v>
       </c>
@@ -2590,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35228AFC-2669-4531-B0F4-93E7DBA7D2AB}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K200" sqref="K200"/>
     </sheetView>
   </sheetViews>
@@ -2612,27 +2642,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2662,13 +2692,13 @@
       <c r="I2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>243</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="56" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2699,10 +2729,10 @@
       <c r="I3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="55" t="s">
         <v>238</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -2740,7 +2770,7 @@
       <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="54" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2775,7 +2805,7 @@
       <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="53" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2874,7 +2904,7 @@
       <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2907,7 +2937,7 @@
       <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="53"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2940,7 +2970,7 @@
       <c r="I10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="53"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3174,21 +3204,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <v>15</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <v>15</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="51">
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3206,21 +3236,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="51">
         <v>16</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="51">
         <v>16</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="51">
         <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3238,21 +3268,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="51">
         <v>17</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="51">
         <v>17</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
         <v>78.5</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="51">
         <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -3270,21 +3300,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="51">
         <v>18</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="51">
         <v>18</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="51">
         <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3302,21 +3332,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="51">
         <v>19</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="51">
         <v>19</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>79.5</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="51">
         <v>19</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3334,21 +3364,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="51">
         <v>20</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="51">
         <v>20</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="51">
         <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -3366,21 +3396,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="51">
         <v>21</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="51">
         <v>21</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
         <v>80.5</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="51">
         <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3398,21 +3428,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="51">
         <v>22</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="51">
         <v>22</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="51">
         <v>22</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -3430,21 +3460,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="51">
         <v>23</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="51">
         <v>23</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>81.5</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="51">
         <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3462,21 +3492,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="51">
         <v>24</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="51">
         <v>24</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="51">
         <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3494,21 +3524,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="51">
         <v>25</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="51">
         <v>25</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="51">
         <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -3526,21 +3556,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="51">
         <v>26</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="51">
         <v>26</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="51">
         <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -3558,21 +3588,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="51">
         <v>27</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="51">
         <v>27</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
         <v>83.5</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="51">
         <v>27</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -3590,21 +3620,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="51">
         <v>28</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="51">
         <v>28</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="51">
         <v>28</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3622,21 +3652,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="51">
         <v>29</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="51">
         <v>29</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
         <v>84.5</v>
       </c>
-      <c r="G32" s="52">
+      <c r="G32" s="51">
         <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -3654,21 +3684,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="51">
         <v>30</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="51">
         <v>30</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="51">
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -3686,21 +3716,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="51">
         <v>31</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="51">
         <v>31</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="2"/>
         <v>85.5</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G34" s="51">
         <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -3718,21 +3748,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="51">
         <v>32</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="51">
         <v>32</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="51">
         <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -3750,21 +3780,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="51">
         <v>33</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="51">
         <v>33</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="2"/>
         <v>86.5</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="51">
         <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3782,21 +3812,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="51">
         <v>34</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="51">
         <v>34</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="51">
         <v>34</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -3814,21 +3844,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="51">
         <v>35</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="51">
         <v>35</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="51">
         <v>35</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3846,21 +3876,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="51">
         <v>36</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="51">
         <v>36</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="51">
         <v>36</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -3878,21 +3908,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="51">
         <v>37</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="51">
         <v>37</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="2"/>
         <v>88.5</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="51">
         <v>37</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -3910,21 +3940,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="51">
         <v>38</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E41" s="51">
         <v>38</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="G41" s="52">
+      <c r="G41" s="51">
         <v>38</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -3942,21 +3972,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="51">
         <v>39</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="51">
         <v>39</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="2"/>
         <v>89.5</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="51">
         <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -3974,21 +4004,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C43" s="51">
         <v>40</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="51">
         <v>40</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="G43" s="52">
+      <c r="G43" s="51">
         <v>40</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -4006,21 +4036,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="51">
         <v>41</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="51">
         <v>41</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
         <v>90.5</v>
       </c>
-      <c r="G44" s="52">
+      <c r="G44" s="51">
         <v>41</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -4038,21 +4068,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="51">
         <v>42</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E45" s="52">
+      <c r="E45" s="51">
         <v>42</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="G45" s="52">
+      <c r="G45" s="51">
         <v>42</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -4070,21 +4100,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="51">
         <v>43</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="51">
         <v>43</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
         <v>91.5</v>
       </c>
-      <c r="G46" s="52">
+      <c r="G46" s="51">
         <v>43</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -4102,21 +4132,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="51">
         <v>44</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="51">
         <v>44</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G47" s="52">
+      <c r="G47" s="51">
         <v>44</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -4134,21 +4164,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="51">
         <v>45</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="51">
         <v>45</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
-      <c r="G48" s="52">
+      <c r="G48" s="51">
         <v>45</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -4166,21 +4196,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="51">
         <v>46</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="51">
         <v>46</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="G49" s="52">
+      <c r="G49" s="51">
         <v>46</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -4198,21 +4228,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C50" s="51">
         <v>47</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="51">
         <v>47</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="2"/>
         <v>93.5</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G50" s="51">
         <v>47</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -4230,21 +4260,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="51">
         <v>48</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E51" s="52">
+      <c r="E51" s="51">
         <v>48</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="G51" s="52">
+      <c r="G51" s="51">
         <v>48</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -4262,21 +4292,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="51">
         <v>49</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E52" s="52">
+      <c r="E52" s="51">
         <v>49</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="2"/>
         <v>94.5</v>
       </c>
-      <c r="G52" s="52">
+      <c r="G52" s="51">
         <v>49</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -4294,21 +4324,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C53" s="52">
+      <c r="C53" s="51">
         <v>50</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E53" s="52">
+      <c r="E53" s="51">
         <v>50</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="G53" s="52">
+      <c r="G53" s="51">
         <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -4326,21 +4356,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C54" s="52">
+      <c r="C54" s="51">
         <v>51</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E54" s="52">
+      <c r="E54" s="51">
         <v>51</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="2"/>
         <v>95.5</v>
       </c>
-      <c r="G54" s="52">
+      <c r="G54" s="51">
         <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -4358,21 +4388,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C55" s="52">
+      <c r="C55" s="51">
         <v>52</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E55" s="52">
+      <c r="E55" s="51">
         <v>52</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="G55" s="52">
+      <c r="G55" s="51">
         <v>52</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -4390,21 +4420,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="51">
         <v>53</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="51">
         <v>53</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="2"/>
         <v>96.5</v>
       </c>
-      <c r="G56" s="52">
+      <c r="G56" s="51">
         <v>53</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -4422,21 +4452,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C57" s="52">
+      <c r="C57" s="51">
         <v>54</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E57" s="52">
+      <c r="E57" s="51">
         <v>54</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="G57" s="52">
+      <c r="G57" s="51">
         <v>54</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -4454,21 +4484,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C58" s="52">
+      <c r="C58" s="51">
         <v>55</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E58" s="52">
+      <c r="E58" s="51">
         <v>55</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
-      <c r="G58" s="52">
+      <c r="G58" s="51">
         <v>55</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -4486,21 +4516,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C59" s="52">
+      <c r="C59" s="51">
         <v>56</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E59" s="52">
+      <c r="E59" s="51">
         <v>56</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="G59" s="52">
+      <c r="G59" s="51">
         <v>56</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -4518,21 +4548,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C60" s="52">
+      <c r="C60" s="51">
         <v>57</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="51">
         <v>57</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="2"/>
         <v>98.5</v>
       </c>
-      <c r="G60" s="52">
+      <c r="G60" s="51">
         <v>57</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -4550,21 +4580,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C61" s="52">
+      <c r="C61" s="51">
         <v>58</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E61" s="52">
+      <c r="E61" s="51">
         <v>58</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="G61" s="52">
+      <c r="G61" s="51">
         <v>58</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -4582,21 +4612,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C62" s="51">
         <v>59</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E62" s="52">
+      <c r="E62" s="51">
         <v>59</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="2"/>
         <v>99.5</v>
       </c>
-      <c r="G62" s="52">
+      <c r="G62" s="51">
         <v>59</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -4614,21 +4644,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C63" s="52">
+      <c r="C63" s="51">
         <v>60</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E63" s="52">
+      <c r="E63" s="51">
         <v>60</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G63" s="52">
+      <c r="G63" s="51">
         <v>60</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -4646,21 +4676,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C64" s="52">
+      <c r="C64" s="51">
         <v>61</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="51">
         <v>61</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="2"/>
         <v>100.5</v>
       </c>
-      <c r="G64" s="52">
+      <c r="G64" s="51">
         <v>61</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -4678,21 +4708,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C65" s="52">
+      <c r="C65" s="51">
         <v>62</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E65" s="52">
+      <c r="E65" s="51">
         <v>62</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="G65" s="52">
+      <c r="G65" s="51">
         <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -4710,21 +4740,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C66" s="52">
+      <c r="C66" s="51">
         <v>63</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E66" s="52">
+      <c r="E66" s="51">
         <v>63</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="2"/>
         <v>101.5</v>
       </c>
-      <c r="G66" s="52">
+      <c r="G66" s="51">
         <v>63</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -4742,21 +4772,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C67" s="52">
+      <c r="C67" s="51">
         <v>64</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="51">
         <v>64</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="51">
         <v>64</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -4774,21 +4804,21 @@
         <f t="shared" ref="B68:B131" si="3">50 + (1 / 2) + (0 * 2)</f>
         <v>50.5</v>
       </c>
-      <c r="C68" s="52">
+      <c r="C68" s="51">
         <v>65</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" ref="D68:D131" si="4">50 + (0 / 2) + (0 * 2)</f>
         <v>50</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="51">
         <v>65</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="F68:F131" si="5">50 + (G68 / 2) + (10 * 2)</f>
         <v>102.5</v>
       </c>
-      <c r="G68" s="52">
+      <c r="G68" s="51">
         <v>65</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -4806,21 +4836,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="51">
         <v>66</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E69" s="52">
+      <c r="E69" s="51">
         <v>66</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="G69" s="52">
+      <c r="G69" s="51">
         <v>66</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -4838,21 +4868,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C70" s="52">
+      <c r="C70" s="51">
         <v>67</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E70" s="52">
+      <c r="E70" s="51">
         <v>67</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="5"/>
         <v>103.5</v>
       </c>
-      <c r="G70" s="52">
+      <c r="G70" s="51">
         <v>67</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -4870,21 +4900,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C71" s="52">
+      <c r="C71" s="51">
         <v>68</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E71" s="52">
+      <c r="E71" s="51">
         <v>68</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="G71" s="52">
+      <c r="G71" s="51">
         <v>68</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -4902,21 +4932,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C72" s="52">
+      <c r="C72" s="51">
         <v>69</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E72" s="52">
+      <c r="E72" s="51">
         <v>69</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="5"/>
         <v>104.5</v>
       </c>
-      <c r="G72" s="52">
+      <c r="G72" s="51">
         <v>69</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -4934,21 +4964,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C73" s="52">
+      <c r="C73" s="51">
         <v>70</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E73" s="52">
+      <c r="E73" s="51">
         <v>70</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="G73" s="52">
+      <c r="G73" s="51">
         <v>70</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -4966,21 +4996,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C74" s="52">
+      <c r="C74" s="51">
         <v>71</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E74" s="51">
         <v>71</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="5"/>
         <v>105.5</v>
       </c>
-      <c r="G74" s="52">
+      <c r="G74" s="51">
         <v>71</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -4998,21 +5028,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C75" s="52">
+      <c r="C75" s="51">
         <v>72</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E75" s="52">
+      <c r="E75" s="51">
         <v>72</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
-      <c r="G75" s="52">
+      <c r="G75" s="51">
         <v>72</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -5030,21 +5060,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C76" s="52">
+      <c r="C76" s="51">
         <v>73</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="51">
         <v>73</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="5"/>
         <v>106.5</v>
       </c>
-      <c r="G76" s="52">
+      <c r="G76" s="51">
         <v>73</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -5062,21 +5092,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C77" s="52">
+      <c r="C77" s="51">
         <v>74</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E77" s="52">
+      <c r="E77" s="51">
         <v>74</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="G77" s="52">
+      <c r="G77" s="51">
         <v>74</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -5094,21 +5124,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C78" s="52">
+      <c r="C78" s="51">
         <v>75</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E78" s="52">
+      <c r="E78" s="51">
         <v>75</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="5"/>
         <v>107.5</v>
       </c>
-      <c r="G78" s="52">
+      <c r="G78" s="51">
         <v>75</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -5126,21 +5156,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="51">
         <v>76</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E79" s="51">
         <v>76</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="G79" s="52">
+      <c r="G79" s="51">
         <v>76</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -5158,21 +5188,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C80" s="52">
+      <c r="C80" s="51">
         <v>77</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="51">
         <v>77</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="5"/>
         <v>108.5</v>
       </c>
-      <c r="G80" s="52">
+      <c r="G80" s="51">
         <v>77</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -5190,21 +5220,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C81" s="52">
+      <c r="C81" s="51">
         <v>78</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E81" s="51">
         <v>78</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="G81" s="52">
+      <c r="G81" s="51">
         <v>78</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -5222,21 +5252,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C82" s="52">
+      <c r="C82" s="51">
         <v>79</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E82" s="51">
         <v>79</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="5"/>
         <v>109.5</v>
       </c>
-      <c r="G82" s="52">
+      <c r="G82" s="51">
         <v>79</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -5254,21 +5284,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C83" s="52">
+      <c r="C83" s="51">
         <v>80</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E83" s="52">
+      <c r="E83" s="51">
         <v>80</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="G83" s="52">
+      <c r="G83" s="51">
         <v>80</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -5286,21 +5316,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C84" s="52">
+      <c r="C84" s="51">
         <v>81</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="51">
         <v>81</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="5"/>
         <v>110.5</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="51">
         <v>81</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -5318,21 +5348,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C85" s="52">
+      <c r="C85" s="51">
         <v>82</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E85" s="52">
+      <c r="E85" s="51">
         <v>82</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="G85" s="52">
+      <c r="G85" s="51">
         <v>82</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -5350,21 +5380,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C86" s="52">
+      <c r="C86" s="51">
         <v>83</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E86" s="52">
+      <c r="E86" s="51">
         <v>83</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="5"/>
         <v>111.5</v>
       </c>
-      <c r="G86" s="52">
+      <c r="G86" s="51">
         <v>83</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -5382,21 +5412,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C87" s="52">
+      <c r="C87" s="51">
         <v>84</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E87" s="52">
+      <c r="E87" s="51">
         <v>84</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="G87" s="52">
+      <c r="G87" s="51">
         <v>84</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -5414,21 +5444,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C88" s="52">
+      <c r="C88" s="51">
         <v>85</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E88" s="52">
+      <c r="E88" s="51">
         <v>85</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
-      <c r="G88" s="52">
+      <c r="G88" s="51">
         <v>85</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -5446,21 +5476,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C89" s="52">
+      <c r="C89" s="51">
         <v>86</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E89" s="52">
+      <c r="E89" s="51">
         <v>86</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="G89" s="52">
+      <c r="G89" s="51">
         <v>86</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -5478,21 +5508,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C90" s="52">
+      <c r="C90" s="51">
         <v>87</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E90" s="52">
+      <c r="E90" s="51">
         <v>87</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="5"/>
         <v>113.5</v>
       </c>
-      <c r="G90" s="52">
+      <c r="G90" s="51">
         <v>87</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -5510,21 +5540,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C91" s="52">
+      <c r="C91" s="51">
         <v>88</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="51">
         <v>88</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="G91" s="52">
+      <c r="G91" s="51">
         <v>88</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -5542,21 +5572,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C92" s="52">
+      <c r="C92" s="51">
         <v>89</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E92" s="52">
+      <c r="E92" s="51">
         <v>89</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="5"/>
         <v>114.5</v>
       </c>
-      <c r="G92" s="52">
+      <c r="G92" s="51">
         <v>89</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -5574,21 +5604,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C93" s="52">
+      <c r="C93" s="51">
         <v>90</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E93" s="52">
+      <c r="E93" s="51">
         <v>90</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="G93" s="52">
+      <c r="G93" s="51">
         <v>90</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -5606,21 +5636,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C94" s="52">
+      <c r="C94" s="51">
         <v>91</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E94" s="52">
+      <c r="E94" s="51">
         <v>91</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="5"/>
         <v>115.5</v>
       </c>
-      <c r="G94" s="52">
+      <c r="G94" s="51">
         <v>91</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -5638,21 +5668,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C95" s="52">
+      <c r="C95" s="51">
         <v>92</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E95" s="52">
+      <c r="E95" s="51">
         <v>92</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="G95" s="52">
+      <c r="G95" s="51">
         <v>92</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -5670,21 +5700,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C96" s="52">
+      <c r="C96" s="51">
         <v>93</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E96" s="52">
+      <c r="E96" s="51">
         <v>93</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="5"/>
         <v>116.5</v>
       </c>
-      <c r="G96" s="52">
+      <c r="G96" s="51">
         <v>93</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -5702,21 +5732,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C97" s="52">
+      <c r="C97" s="51">
         <v>94</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="51">
         <v>94</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="G97" s="52">
+      <c r="G97" s="51">
         <v>94</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -5734,21 +5764,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C98" s="52">
+      <c r="C98" s="51">
         <v>95</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E98" s="52">
+      <c r="E98" s="51">
         <v>95</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="5"/>
         <v>117.5</v>
       </c>
-      <c r="G98" s="52">
+      <c r="G98" s="51">
         <v>95</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -5766,21 +5796,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C99" s="52">
+      <c r="C99" s="51">
         <v>96</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E99" s="52">
+      <c r="E99" s="51">
         <v>96</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="G99" s="52">
+      <c r="G99" s="51">
         <v>96</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -5798,21 +5828,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C100" s="52">
+      <c r="C100" s="51">
         <v>97</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E100" s="52">
+      <c r="E100" s="51">
         <v>97</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="5"/>
         <v>118.5</v>
       </c>
-      <c r="G100" s="52">
+      <c r="G100" s="51">
         <v>97</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -5830,21 +5860,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C101" s="52">
+      <c r="C101" s="51">
         <v>98</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E101" s="52">
+      <c r="E101" s="51">
         <v>98</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="G101" s="52">
+      <c r="G101" s="51">
         <v>98</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -5862,21 +5892,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="51">
         <v>99</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E102" s="52">
+      <c r="E102" s="51">
         <v>99</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="5"/>
         <v>119.5</v>
       </c>
-      <c r="G102" s="52">
+      <c r="G102" s="51">
         <v>99</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -5894,21 +5924,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C103" s="52">
+      <c r="C103" s="51">
         <v>100</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E103" s="52">
+      <c r="E103" s="51">
         <v>100</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="G103" s="52">
+      <c r="G103" s="51">
         <v>100</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -5926,21 +5956,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C104" s="52">
+      <c r="C104" s="51">
         <v>101</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E104" s="52">
+      <c r="E104" s="51">
         <v>101</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="5"/>
         <v>120.5</v>
       </c>
-      <c r="G104" s="52">
+      <c r="G104" s="51">
         <v>101</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -5958,21 +5988,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C105" s="52">
+      <c r="C105" s="51">
         <v>102</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E105" s="52">
+      <c r="E105" s="51">
         <v>102</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="G105" s="52">
+      <c r="G105" s="51">
         <v>102</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -5990,21 +6020,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C106" s="52">
+      <c r="C106" s="51">
         <v>103</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E106" s="52">
+      <c r="E106" s="51">
         <v>103</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="5"/>
         <v>121.5</v>
       </c>
-      <c r="G106" s="52">
+      <c r="G106" s="51">
         <v>103</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -6022,21 +6052,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C107" s="52">
+      <c r="C107" s="51">
         <v>104</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E107" s="52">
+      <c r="E107" s="51">
         <v>104</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="G107" s="52">
+      <c r="G107" s="51">
         <v>104</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -6054,21 +6084,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C108" s="52">
+      <c r="C108" s="51">
         <v>105</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E108" s="52">
+      <c r="E108" s="51">
         <v>105</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="5"/>
         <v>122.5</v>
       </c>
-      <c r="G108" s="52">
+      <c r="G108" s="51">
         <v>105</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -6086,21 +6116,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C109" s="52">
+      <c r="C109" s="51">
         <v>106</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E109" s="52">
+      <c r="E109" s="51">
         <v>106</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="G109" s="52">
+      <c r="G109" s="51">
         <v>106</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -6118,21 +6148,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C110" s="52">
+      <c r="C110" s="51">
         <v>107</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E110" s="52">
+      <c r="E110" s="51">
         <v>107</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="5"/>
         <v>123.5</v>
       </c>
-      <c r="G110" s="52">
+      <c r="G110" s="51">
         <v>107</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -6150,21 +6180,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C111" s="52">
+      <c r="C111" s="51">
         <v>108</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E111" s="52">
+      <c r="E111" s="51">
         <v>108</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="G111" s="52">
+      <c r="G111" s="51">
         <v>108</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -6182,21 +6212,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C112" s="52">
+      <c r="C112" s="51">
         <v>109</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E112" s="52">
+      <c r="E112" s="51">
         <v>109</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="5"/>
         <v>124.5</v>
       </c>
-      <c r="G112" s="52">
+      <c r="G112" s="51">
         <v>109</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -6214,21 +6244,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C113" s="52">
+      <c r="C113" s="51">
         <v>110</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E113" s="52">
+      <c r="E113" s="51">
         <v>110</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="G113" s="52">
+      <c r="G113" s="51">
         <v>110</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -6246,21 +6276,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C114" s="52">
+      <c r="C114" s="51">
         <v>111</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E114" s="52">
+      <c r="E114" s="51">
         <v>111</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="5"/>
         <v>125.5</v>
       </c>
-      <c r="G114" s="52">
+      <c r="G114" s="51">
         <v>111</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -6278,21 +6308,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C115" s="52">
+      <c r="C115" s="51">
         <v>112</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E115" s="52">
+      <c r="E115" s="51">
         <v>112</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="G115" s="52">
+      <c r="G115" s="51">
         <v>112</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -6310,21 +6340,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C116" s="52">
+      <c r="C116" s="51">
         <v>113</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E116" s="52">
+      <c r="E116" s="51">
         <v>113</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="5"/>
         <v>126.5</v>
       </c>
-      <c r="G116" s="52">
+      <c r="G116" s="51">
         <v>113</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -6342,21 +6372,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C117" s="52">
+      <c r="C117" s="51">
         <v>114</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E117" s="52">
+      <c r="E117" s="51">
         <v>114</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
-      <c r="G117" s="52">
+      <c r="G117" s="51">
         <v>114</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -6374,21 +6404,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C118" s="52">
+      <c r="C118" s="51">
         <v>115</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E118" s="52">
+      <c r="E118" s="51">
         <v>115</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="5"/>
         <v>127.5</v>
       </c>
-      <c r="G118" s="52">
+      <c r="G118" s="51">
         <v>115</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -6406,21 +6436,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C119" s="52">
+      <c r="C119" s="51">
         <v>116</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E119" s="52">
+      <c r="E119" s="51">
         <v>116</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="G119" s="52">
+      <c r="G119" s="51">
         <v>116</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -6438,21 +6468,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C120" s="52">
+      <c r="C120" s="51">
         <v>117</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E120" s="52">
+      <c r="E120" s="51">
         <v>117</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="5"/>
         <v>128.5</v>
       </c>
-      <c r="G120" s="52">
+      <c r="G120" s="51">
         <v>117</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -6470,21 +6500,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C121" s="52">
+      <c r="C121" s="51">
         <v>118</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E121" s="52">
+      <c r="E121" s="51">
         <v>118</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="G121" s="52">
+      <c r="G121" s="51">
         <v>118</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -6502,21 +6532,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C122" s="52">
+      <c r="C122" s="51">
         <v>119</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E122" s="52">
+      <c r="E122" s="51">
         <v>119</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="5"/>
         <v>129.5</v>
       </c>
-      <c r="G122" s="52">
+      <c r="G122" s="51">
         <v>119</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -6534,21 +6564,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C123" s="52">
+      <c r="C123" s="51">
         <v>120</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E123" s="52">
+      <c r="E123" s="51">
         <v>120</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="G123" s="52">
+      <c r="G123" s="51">
         <v>120</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -6566,21 +6596,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C124" s="52">
+      <c r="C124" s="51">
         <v>121</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E124" s="52">
+      <c r="E124" s="51">
         <v>121</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="5"/>
         <v>130.5</v>
       </c>
-      <c r="G124" s="52">
+      <c r="G124" s="51">
         <v>121</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -6598,21 +6628,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C125" s="52">
+      <c r="C125" s="51">
         <v>122</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E125" s="52">
+      <c r="E125" s="51">
         <v>122</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="5"/>
         <v>131</v>
       </c>
-      <c r="G125" s="52">
+      <c r="G125" s="51">
         <v>122</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -6630,21 +6660,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C126" s="52">
+      <c r="C126" s="51">
         <v>123</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E126" s="52">
+      <c r="E126" s="51">
         <v>123</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="5"/>
         <v>131.5</v>
       </c>
-      <c r="G126" s="52">
+      <c r="G126" s="51">
         <v>123</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -6662,21 +6692,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C127" s="52">
+      <c r="C127" s="51">
         <v>124</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E127" s="52">
+      <c r="E127" s="51">
         <v>124</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="G127" s="52">
+      <c r="G127" s="51">
         <v>124</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -6694,21 +6724,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C128" s="52">
+      <c r="C128" s="51">
         <v>125</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E128" s="52">
+      <c r="E128" s="51">
         <v>125</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="5"/>
         <v>132.5</v>
       </c>
-      <c r="G128" s="52">
+      <c r="G128" s="51">
         <v>125</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -6726,21 +6756,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C129" s="52">
+      <c r="C129" s="51">
         <v>126</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E129" s="52">
+      <c r="E129" s="51">
         <v>126</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="5"/>
         <v>133</v>
       </c>
-      <c r="G129" s="52">
+      <c r="G129" s="51">
         <v>126</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -6758,21 +6788,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C130" s="52">
+      <c r="C130" s="51">
         <v>127</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E130" s="52">
+      <c r="E130" s="51">
         <v>127</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="5"/>
         <v>133.5</v>
       </c>
-      <c r="G130" s="52">
+      <c r="G130" s="51">
         <v>127</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -6790,21 +6820,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C131" s="52">
+      <c r="C131" s="51">
         <v>128</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E131" s="52">
+      <c r="E131" s="51">
         <v>128</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
-      <c r="G131" s="52">
+      <c r="G131" s="51">
         <v>128</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -6822,21 +6852,21 @@
         <f t="shared" ref="B132:B195" si="6">50 + (1 / 2) + (0 * 2)</f>
         <v>50.5</v>
       </c>
-      <c r="C132" s="52">
+      <c r="C132" s="51">
         <v>129</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" ref="D132:D195" si="7">50 + (0 / 2) + (0 * 2)</f>
         <v>50</v>
       </c>
-      <c r="E132" s="52">
+      <c r="E132" s="51">
         <v>129</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" ref="F132:F195" si="8">50 + (G132 / 2) + (10 * 2)</f>
         <v>134.5</v>
       </c>
-      <c r="G132" s="52">
+      <c r="G132" s="51">
         <v>129</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -6854,21 +6884,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C133" s="52">
+      <c r="C133" s="51">
         <v>130</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E133" s="52">
+      <c r="E133" s="51">
         <v>130</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="G133" s="52">
+      <c r="G133" s="51">
         <v>130</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -6886,21 +6916,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C134" s="52">
+      <c r="C134" s="51">
         <v>131</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E134" s="52">
+      <c r="E134" s="51">
         <v>131</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="8"/>
         <v>135.5</v>
       </c>
-      <c r="G134" s="52">
+      <c r="G134" s="51">
         <v>131</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -6918,21 +6948,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C135" s="52">
+      <c r="C135" s="51">
         <v>132</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E135" s="52">
+      <c r="E135" s="51">
         <v>132</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="G135" s="52">
+      <c r="G135" s="51">
         <v>132</v>
       </c>
       <c r="H135" s="1" t="s">
@@ -6950,21 +6980,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C136" s="52">
+      <c r="C136" s="51">
         <v>133</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E136" s="52">
+      <c r="E136" s="51">
         <v>133</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="8"/>
         <v>136.5</v>
       </c>
-      <c r="G136" s="52">
+      <c r="G136" s="51">
         <v>133</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -6982,21 +7012,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C137" s="52">
+      <c r="C137" s="51">
         <v>134</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E137" s="52">
+      <c r="E137" s="51">
         <v>134</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="G137" s="52">
+      <c r="G137" s="51">
         <v>134</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -7014,21 +7044,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C138" s="52">
+      <c r="C138" s="51">
         <v>135</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E138" s="52">
+      <c r="E138" s="51">
         <v>135</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="8"/>
         <v>137.5</v>
       </c>
-      <c r="G138" s="52">
+      <c r="G138" s="51">
         <v>135</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -7046,21 +7076,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C139" s="52">
+      <c r="C139" s="51">
         <v>136</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E139" s="52">
+      <c r="E139" s="51">
         <v>136</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="G139" s="52">
+      <c r="G139" s="51">
         <v>136</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -7078,21 +7108,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C140" s="52">
+      <c r="C140" s="51">
         <v>137</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E140" s="52">
+      <c r="E140" s="51">
         <v>137</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="8"/>
         <v>138.5</v>
       </c>
-      <c r="G140" s="52">
+      <c r="G140" s="51">
         <v>137</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -7110,21 +7140,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C141" s="52">
+      <c r="C141" s="51">
         <v>138</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E141" s="52">
+      <c r="E141" s="51">
         <v>138</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="G141" s="52">
+      <c r="G141" s="51">
         <v>138</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -7142,21 +7172,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C142" s="52">
+      <c r="C142" s="51">
         <v>139</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E142" s="52">
+      <c r="E142" s="51">
         <v>139</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="8"/>
         <v>139.5</v>
       </c>
-      <c r="G142" s="52">
+      <c r="G142" s="51">
         <v>139</v>
       </c>
       <c r="H142" s="1" t="s">
@@ -7174,21 +7204,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C143" s="52">
+      <c r="C143" s="51">
         <v>140</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E143" s="52">
+      <c r="E143" s="51">
         <v>140</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="G143" s="52">
+      <c r="G143" s="51">
         <v>140</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -7206,21 +7236,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C144" s="52">
+      <c r="C144" s="51">
         <v>141</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E144" s="52">
+      <c r="E144" s="51">
         <v>141</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="8"/>
         <v>140.5</v>
       </c>
-      <c r="G144" s="52">
+      <c r="G144" s="51">
         <v>141</v>
       </c>
       <c r="H144" s="1" t="s">
@@ -7238,21 +7268,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C145" s="52">
+      <c r="C145" s="51">
         <v>142</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E145" s="52">
+      <c r="E145" s="51">
         <v>142</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="G145" s="52">
+      <c r="G145" s="51">
         <v>142</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -7270,21 +7300,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C146" s="52">
+      <c r="C146" s="51">
         <v>143</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E146" s="52">
+      <c r="E146" s="51">
         <v>143</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="8"/>
         <v>141.5</v>
       </c>
-      <c r="G146" s="52">
+      <c r="G146" s="51">
         <v>143</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -7302,21 +7332,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C147" s="52">
+      <c r="C147" s="51">
         <v>144</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E147" s="52">
+      <c r="E147" s="51">
         <v>144</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
-      <c r="G147" s="52">
+      <c r="G147" s="51">
         <v>144</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -7334,21 +7364,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C148" s="52">
+      <c r="C148" s="51">
         <v>145</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E148" s="52">
+      <c r="E148" s="51">
         <v>145</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="8"/>
         <v>142.5</v>
       </c>
-      <c r="G148" s="52">
+      <c r="G148" s="51">
         <v>145</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -7366,21 +7396,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C149" s="52">
+      <c r="C149" s="51">
         <v>146</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E149" s="52">
+      <c r="E149" s="51">
         <v>146</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="8"/>
         <v>143</v>
       </c>
-      <c r="G149" s="52">
+      <c r="G149" s="51">
         <v>146</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -7398,21 +7428,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C150" s="52">
+      <c r="C150" s="51">
         <v>147</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E150" s="52">
+      <c r="E150" s="51">
         <v>147</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="8"/>
         <v>143.5</v>
       </c>
-      <c r="G150" s="52">
+      <c r="G150" s="51">
         <v>147</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -7430,21 +7460,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C151" s="52">
+      <c r="C151" s="51">
         <v>148</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E151" s="52">
+      <c r="E151" s="51">
         <v>148</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="G151" s="52">
+      <c r="G151" s="51">
         <v>148</v>
       </c>
       <c r="H151" s="1" t="s">
@@ -7462,21 +7492,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C152" s="52">
+      <c r="C152" s="51">
         <v>149</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E152" s="52">
+      <c r="E152" s="51">
         <v>149</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="8"/>
         <v>144.5</v>
       </c>
-      <c r="G152" s="52">
+      <c r="G152" s="51">
         <v>149</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -7494,21 +7524,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C153" s="52">
+      <c r="C153" s="51">
         <v>150</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E153" s="52">
+      <c r="E153" s="51">
         <v>150</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="8"/>
         <v>145</v>
       </c>
-      <c r="G153" s="52">
+      <c r="G153" s="51">
         <v>150</v>
       </c>
       <c r="H153" s="1" t="s">
@@ -7526,21 +7556,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C154" s="52">
+      <c r="C154" s="51">
         <v>151</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E154" s="52">
+      <c r="E154" s="51">
         <v>151</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="8"/>
         <v>145.5</v>
       </c>
-      <c r="G154" s="52">
+      <c r="G154" s="51">
         <v>151</v>
       </c>
       <c r="H154" s="1" t="s">
@@ -7558,21 +7588,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C155" s="52">
+      <c r="C155" s="51">
         <v>152</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E155" s="52">
+      <c r="E155" s="51">
         <v>152</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="G155" s="52">
+      <c r="G155" s="51">
         <v>152</v>
       </c>
       <c r="H155" s="1" t="s">
@@ -7590,21 +7620,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C156" s="52">
+      <c r="C156" s="51">
         <v>153</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E156" s="52">
+      <c r="E156" s="51">
         <v>153</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="8"/>
         <v>146.5</v>
       </c>
-      <c r="G156" s="52">
+      <c r="G156" s="51">
         <v>153</v>
       </c>
       <c r="H156" s="1" t="s">
@@ -7622,21 +7652,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C157" s="52">
+      <c r="C157" s="51">
         <v>154</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E157" s="52">
+      <c r="E157" s="51">
         <v>154</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="G157" s="52">
+      <c r="G157" s="51">
         <v>154</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -7654,21 +7684,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C158" s="52">
+      <c r="C158" s="51">
         <v>155</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E158" s="52">
+      <c r="E158" s="51">
         <v>155</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="8"/>
         <v>147.5</v>
       </c>
-      <c r="G158" s="52">
+      <c r="G158" s="51">
         <v>155</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -7686,21 +7716,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C159" s="52">
+      <c r="C159" s="51">
         <v>156</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E159" s="52">
+      <c r="E159" s="51">
         <v>156</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="G159" s="52">
+      <c r="G159" s="51">
         <v>156</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -7718,21 +7748,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C160" s="52">
+      <c r="C160" s="51">
         <v>157</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E160" s="52">
+      <c r="E160" s="51">
         <v>157</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="8"/>
         <v>148.5</v>
       </c>
-      <c r="G160" s="52">
+      <c r="G160" s="51">
         <v>157</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -7750,21 +7780,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C161" s="52">
+      <c r="C161" s="51">
         <v>158</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E161" s="52">
+      <c r="E161" s="51">
         <v>158</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="8"/>
         <v>149</v>
       </c>
-      <c r="G161" s="52">
+      <c r="G161" s="51">
         <v>158</v>
       </c>
       <c r="H161" s="1" t="s">
@@ -7782,21 +7812,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C162" s="52">
+      <c r="C162" s="51">
         <v>159</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E162" s="52">
+      <c r="E162" s="51">
         <v>159</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="8"/>
         <v>149.5</v>
       </c>
-      <c r="G162" s="52">
+      <c r="G162" s="51">
         <v>159</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -7814,21 +7844,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C163" s="52">
+      <c r="C163" s="51">
         <v>160</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E163" s="52">
+      <c r="E163" s="51">
         <v>160</v>
       </c>
       <c r="F163" s="1">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="G163" s="52">
+      <c r="G163" s="51">
         <v>160</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -7846,21 +7876,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C164" s="52">
+      <c r="C164" s="51">
         <v>161</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E164" s="52">
+      <c r="E164" s="51">
         <v>161</v>
       </c>
       <c r="F164" s="1">
         <f t="shared" si="8"/>
         <v>150.5</v>
       </c>
-      <c r="G164" s="52">
+      <c r="G164" s="51">
         <v>161</v>
       </c>
       <c r="H164" s="1" t="s">
@@ -7878,21 +7908,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C165" s="52">
+      <c r="C165" s="51">
         <v>162</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E165" s="52">
+      <c r="E165" s="51">
         <v>162</v>
       </c>
       <c r="F165" s="1">
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="G165" s="52">
+      <c r="G165" s="51">
         <v>162</v>
       </c>
       <c r="H165" s="1" t="s">
@@ -7910,21 +7940,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C166" s="52">
+      <c r="C166" s="51">
         <v>163</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E166" s="52">
+      <c r="E166" s="51">
         <v>163</v>
       </c>
       <c r="F166" s="1">
         <f t="shared" si="8"/>
         <v>151.5</v>
       </c>
-      <c r="G166" s="52">
+      <c r="G166" s="51">
         <v>163</v>
       </c>
       <c r="H166" s="1" t="s">
@@ -7942,21 +7972,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C167" s="52">
+      <c r="C167" s="51">
         <v>164</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E167" s="52">
+      <c r="E167" s="51">
         <v>164</v>
       </c>
       <c r="F167" s="1">
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="G167" s="52">
+      <c r="G167" s="51">
         <v>164</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -7974,21 +8004,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C168" s="52">
+      <c r="C168" s="51">
         <v>165</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E168" s="52">
+      <c r="E168" s="51">
         <v>165</v>
       </c>
       <c r="F168" s="1">
         <f t="shared" si="8"/>
         <v>152.5</v>
       </c>
-      <c r="G168" s="52">
+      <c r="G168" s="51">
         <v>165</v>
       </c>
       <c r="H168" s="1" t="s">
@@ -8006,21 +8036,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C169" s="52">
+      <c r="C169" s="51">
         <v>166</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E169" s="52">
+      <c r="E169" s="51">
         <v>166</v>
       </c>
       <c r="F169" s="1">
         <f t="shared" si="8"/>
         <v>153</v>
       </c>
-      <c r="G169" s="52">
+      <c r="G169" s="51">
         <v>166</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -8038,21 +8068,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C170" s="52">
+      <c r="C170" s="51">
         <v>167</v>
       </c>
       <c r="D170" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E170" s="52">
+      <c r="E170" s="51">
         <v>167</v>
       </c>
       <c r="F170" s="1">
         <f t="shared" si="8"/>
         <v>153.5</v>
       </c>
-      <c r="G170" s="52">
+      <c r="G170" s="51">
         <v>167</v>
       </c>
       <c r="H170" s="1" t="s">
@@ -8070,21 +8100,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C171" s="52">
+      <c r="C171" s="51">
         <v>168</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E171" s="52">
+      <c r="E171" s="51">
         <v>168</v>
       </c>
       <c r="F171" s="1">
         <f t="shared" si="8"/>
         <v>154</v>
       </c>
-      <c r="G171" s="52">
+      <c r="G171" s="51">
         <v>168</v>
       </c>
       <c r="H171" s="1" t="s">
@@ -8102,21 +8132,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C172" s="52">
+      <c r="C172" s="51">
         <v>169</v>
       </c>
       <c r="D172" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E172" s="52">
+      <c r="E172" s="51">
         <v>169</v>
       </c>
       <c r="F172" s="1">
         <f t="shared" si="8"/>
         <v>154.5</v>
       </c>
-      <c r="G172" s="52">
+      <c r="G172" s="51">
         <v>169</v>
       </c>
       <c r="H172" s="1" t="s">
@@ -8134,21 +8164,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C173" s="52">
+      <c r="C173" s="51">
         <v>170</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E173" s="52">
+      <c r="E173" s="51">
         <v>170</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="G173" s="52">
+      <c r="G173" s="51">
         <v>170</v>
       </c>
       <c r="H173" s="1" t="s">
@@ -8166,21 +8196,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C174" s="52">
+      <c r="C174" s="51">
         <v>171</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E174" s="52">
+      <c r="E174" s="51">
         <v>171</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="8"/>
         <v>155.5</v>
       </c>
-      <c r="G174" s="52">
+      <c r="G174" s="51">
         <v>171</v>
       </c>
       <c r="H174" s="1" t="s">
@@ -8198,21 +8228,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C175" s="52">
+      <c r="C175" s="51">
         <v>172</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E175" s="52">
+      <c r="E175" s="51">
         <v>172</v>
       </c>
       <c r="F175" s="1">
         <f t="shared" si="8"/>
         <v>156</v>
       </c>
-      <c r="G175" s="52">
+      <c r="G175" s="51">
         <v>172</v>
       </c>
       <c r="H175" s="1" t="s">
@@ -8230,21 +8260,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C176" s="52">
+      <c r="C176" s="51">
         <v>173</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E176" s="52">
+      <c r="E176" s="51">
         <v>173</v>
       </c>
       <c r="F176" s="1">
         <f t="shared" si="8"/>
         <v>156.5</v>
       </c>
-      <c r="G176" s="52">
+      <c r="G176" s="51">
         <v>173</v>
       </c>
       <c r="H176" s="1" t="s">
@@ -8262,21 +8292,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C177" s="52">
+      <c r="C177" s="51">
         <v>174</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E177" s="52">
+      <c r="E177" s="51">
         <v>174</v>
       </c>
       <c r="F177" s="1">
         <f t="shared" si="8"/>
         <v>157</v>
       </c>
-      <c r="G177" s="52">
+      <c r="G177" s="51">
         <v>174</v>
       </c>
       <c r="H177" s="1" t="s">
@@ -8294,21 +8324,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C178" s="52">
+      <c r="C178" s="51">
         <v>175</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E178" s="52">
+      <c r="E178" s="51">
         <v>175</v>
       </c>
       <c r="F178" s="1">
         <f t="shared" si="8"/>
         <v>157.5</v>
       </c>
-      <c r="G178" s="52">
+      <c r="G178" s="51">
         <v>175</v>
       </c>
       <c r="H178" s="1" t="s">
@@ -8326,21 +8356,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C179" s="52">
+      <c r="C179" s="51">
         <v>176</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E179" s="52">
+      <c r="E179" s="51">
         <v>176</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" si="8"/>
         <v>158</v>
       </c>
-      <c r="G179" s="52">
+      <c r="G179" s="51">
         <v>176</v>
       </c>
       <c r="H179" s="1" t="s">
@@ -8358,21 +8388,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C180" s="52">
+      <c r="C180" s="51">
         <v>177</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E180" s="52">
+      <c r="E180" s="51">
         <v>177</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" si="8"/>
         <v>158.5</v>
       </c>
-      <c r="G180" s="52">
+      <c r="G180" s="51">
         <v>177</v>
       </c>
       <c r="H180" s="1" t="s">
@@ -8390,21 +8420,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C181" s="52">
+      <c r="C181" s="51">
         <v>178</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E181" s="52">
+      <c r="E181" s="51">
         <v>178</v>
       </c>
       <c r="F181" s="1">
         <f t="shared" si="8"/>
         <v>159</v>
       </c>
-      <c r="G181" s="52">
+      <c r="G181" s="51">
         <v>178</v>
       </c>
       <c r="H181" s="1" t="s">
@@ -8422,21 +8452,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C182" s="52">
+      <c r="C182" s="51">
         <v>179</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E182" s="52">
+      <c r="E182" s="51">
         <v>179</v>
       </c>
       <c r="F182" s="1">
         <f t="shared" si="8"/>
         <v>159.5</v>
       </c>
-      <c r="G182" s="52">
+      <c r="G182" s="51">
         <v>179</v>
       </c>
       <c r="H182" s="1" t="s">
@@ -8454,21 +8484,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C183" s="52">
+      <c r="C183" s="51">
         <v>180</v>
       </c>
       <c r="D183" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E183" s="52">
+      <c r="E183" s="51">
         <v>180</v>
       </c>
       <c r="F183" s="1">
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="G183" s="52">
+      <c r="G183" s="51">
         <v>180</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -8486,21 +8516,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C184" s="52">
+      <c r="C184" s="51">
         <v>181</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E184" s="52">
+      <c r="E184" s="51">
         <v>181</v>
       </c>
       <c r="F184" s="1">
         <f t="shared" si="8"/>
         <v>160.5</v>
       </c>
-      <c r="G184" s="52">
+      <c r="G184" s="51">
         <v>181</v>
       </c>
       <c r="H184" s="1" t="s">
@@ -8518,21 +8548,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C185" s="52">
+      <c r="C185" s="51">
         <v>182</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E185" s="52">
+      <c r="E185" s="51">
         <v>182</v>
       </c>
       <c r="F185" s="1">
         <f t="shared" si="8"/>
         <v>161</v>
       </c>
-      <c r="G185" s="52">
+      <c r="G185" s="51">
         <v>182</v>
       </c>
       <c r="H185" s="1" t="s">
@@ -8550,21 +8580,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C186" s="52">
+      <c r="C186" s="51">
         <v>183</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E186" s="52">
+      <c r="E186" s="51">
         <v>183</v>
       </c>
       <c r="F186" s="1">
         <f t="shared" si="8"/>
         <v>161.5</v>
       </c>
-      <c r="G186" s="52">
+      <c r="G186" s="51">
         <v>183</v>
       </c>
       <c r="H186" s="1" t="s">
@@ -8582,21 +8612,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C187" s="52">
+      <c r="C187" s="51">
         <v>184</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E187" s="52">
+      <c r="E187" s="51">
         <v>184</v>
       </c>
       <c r="F187" s="1">
         <f t="shared" si="8"/>
         <v>162</v>
       </c>
-      <c r="G187" s="52">
+      <c r="G187" s="51">
         <v>184</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -8614,21 +8644,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C188" s="52">
+      <c r="C188" s="51">
         <v>185</v>
       </c>
       <c r="D188" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E188" s="52">
+      <c r="E188" s="51">
         <v>185</v>
       </c>
       <c r="F188" s="1">
         <f t="shared" si="8"/>
         <v>162.5</v>
       </c>
-      <c r="G188" s="52">
+      <c r="G188" s="51">
         <v>185</v>
       </c>
       <c r="H188" s="1" t="s">
@@ -8646,21 +8676,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C189" s="52">
+      <c r="C189" s="51">
         <v>186</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E189" s="52">
+      <c r="E189" s="51">
         <v>186</v>
       </c>
       <c r="F189" s="1">
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
-      <c r="G189" s="52">
+      <c r="G189" s="51">
         <v>186</v>
       </c>
       <c r="H189" s="1" t="s">
@@ -8678,21 +8708,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C190" s="52">
+      <c r="C190" s="51">
         <v>187</v>
       </c>
       <c r="D190" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E190" s="52">
+      <c r="E190" s="51">
         <v>187</v>
       </c>
       <c r="F190" s="1">
         <f t="shared" si="8"/>
         <v>163.5</v>
       </c>
-      <c r="G190" s="52">
+      <c r="G190" s="51">
         <v>187</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -8710,21 +8740,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C191" s="52">
+      <c r="C191" s="51">
         <v>188</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E191" s="52">
+      <c r="E191" s="51">
         <v>188</v>
       </c>
       <c r="F191" s="1">
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="G191" s="52">
+      <c r="G191" s="51">
         <v>188</v>
       </c>
       <c r="H191" s="1" t="s">
@@ -8742,21 +8772,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C192" s="52">
+      <c r="C192" s="51">
         <v>189</v>
       </c>
       <c r="D192" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E192" s="52">
+      <c r="E192" s="51">
         <v>189</v>
       </c>
       <c r="F192" s="1">
         <f t="shared" si="8"/>
         <v>164.5</v>
       </c>
-      <c r="G192" s="52">
+      <c r="G192" s="51">
         <v>189</v>
       </c>
       <c r="H192" s="1" t="s">
@@ -8774,21 +8804,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C193" s="52">
+      <c r="C193" s="51">
         <v>190</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E193" s="52">
+      <c r="E193" s="51">
         <v>190</v>
       </c>
       <c r="F193" s="1">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="G193" s="52">
+      <c r="G193" s="51">
         <v>190</v>
       </c>
       <c r="H193" s="1" t="s">
@@ -8806,21 +8836,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C194" s="52">
+      <c r="C194" s="51">
         <v>191</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E194" s="52">
+      <c r="E194" s="51">
         <v>191</v>
       </c>
       <c r="F194" s="1">
         <f t="shared" si="8"/>
         <v>165.5</v>
       </c>
-      <c r="G194" s="52">
+      <c r="G194" s="51">
         <v>191</v>
       </c>
       <c r="H194" s="1" t="s">
@@ -8838,21 +8868,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C195" s="52">
+      <c r="C195" s="51">
         <v>192</v>
       </c>
       <c r="D195" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E195" s="52">
+      <c r="E195" s="51">
         <v>192</v>
       </c>
       <c r="F195" s="1">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="G195" s="52">
+      <c r="G195" s="51">
         <v>192</v>
       </c>
       <c r="H195" s="1" t="s">
@@ -8870,21 +8900,21 @@
         <f t="shared" ref="B196:B204" si="9">50 + (1 / 2) + (0 * 2)</f>
         <v>50.5</v>
       </c>
-      <c r="C196" s="52">
+      <c r="C196" s="51">
         <v>193</v>
       </c>
       <c r="D196" s="1">
         <f t="shared" ref="D196:D204" si="10">50 + (0 / 2) + (0 * 2)</f>
         <v>50</v>
       </c>
-      <c r="E196" s="52">
+      <c r="E196" s="51">
         <v>193</v>
       </c>
       <c r="F196" s="1">
         <f t="shared" ref="F196:F204" si="11">50 + (G196 / 2) + (10 * 2)</f>
         <v>166.5</v>
       </c>
-      <c r="G196" s="52">
+      <c r="G196" s="51">
         <v>193</v>
       </c>
       <c r="H196" s="1" t="s">
@@ -8902,21 +8932,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C197" s="52">
+      <c r="C197" s="51">
         <v>194</v>
       </c>
       <c r="D197" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E197" s="52">
+      <c r="E197" s="51">
         <v>194</v>
       </c>
       <c r="F197" s="1">
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="G197" s="52">
+      <c r="G197" s="51">
         <v>194</v>
       </c>
       <c r="H197" s="1" t="s">
@@ -8934,21 +8964,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C198" s="52">
+      <c r="C198" s="51">
         <v>195</v>
       </c>
       <c r="D198" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E198" s="52">
+      <c r="E198" s="51">
         <v>195</v>
       </c>
       <c r="F198" s="1">
         <f t="shared" si="11"/>
         <v>167.5</v>
       </c>
-      <c r="G198" s="52">
+      <c r="G198" s="51">
         <v>195</v>
       </c>
       <c r="H198" s="1" t="s">
@@ -8966,21 +8996,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C199" s="52">
+      <c r="C199" s="51">
         <v>196</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E199" s="52">
+      <c r="E199" s="51">
         <v>196</v>
       </c>
       <c r="F199" s="1">
         <f t="shared" si="11"/>
         <v>168</v>
       </c>
-      <c r="G199" s="52">
+      <c r="G199" s="51">
         <v>196</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -8998,21 +9028,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C200" s="52">
+      <c r="C200" s="51">
         <v>197</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E200" s="52">
+      <c r="E200" s="51">
         <v>197</v>
       </c>
       <c r="F200" s="1">
         <f t="shared" si="11"/>
         <v>168.5</v>
       </c>
-      <c r="G200" s="52">
+      <c r="G200" s="51">
         <v>197</v>
       </c>
       <c r="H200" s="1" t="s">
@@ -9030,21 +9060,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C201" s="52">
+      <c r="C201" s="51">
         <v>198</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E201" s="52">
+      <c r="E201" s="51">
         <v>198</v>
       </c>
       <c r="F201" s="1">
         <f t="shared" si="11"/>
         <v>169</v>
       </c>
-      <c r="G201" s="52">
+      <c r="G201" s="51">
         <v>198</v>
       </c>
       <c r="H201" s="1" t="s">
@@ -9062,21 +9092,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C202" s="52">
+      <c r="C202" s="51">
         <v>199</v>
       </c>
       <c r="D202" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E202" s="52">
+      <c r="E202" s="51">
         <v>199</v>
       </c>
       <c r="F202" s="1">
         <f t="shared" si="11"/>
         <v>169.5</v>
       </c>
-      <c r="G202" s="52">
+      <c r="G202" s="51">
         <v>199</v>
       </c>
       <c r="H202" s="1" t="s">
@@ -9094,21 +9124,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C203" s="52">
+      <c r="C203" s="51">
         <v>200</v>
       </c>
       <c r="D203" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E203" s="52">
+      <c r="E203" s="51">
         <v>200</v>
       </c>
       <c r="F203" s="1">
         <f t="shared" si="11"/>
         <v>170</v>
       </c>
-      <c r="G203" s="52">
+      <c r="G203" s="51">
         <v>200</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -9126,21 +9156,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C204" s="52">
+      <c r="C204" s="51">
         <v>201</v>
       </c>
       <c r="D204" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E204" s="52">
+      <c r="E204" s="51">
         <v>201</v>
       </c>
       <c r="F204" s="1">
         <f t="shared" si="11"/>
         <v>170.5</v>
       </c>
-      <c r="G204" s="52">
+      <c r="G204" s="51">
         <v>201</v>
       </c>
       <c r="H204" s="1" t="s">

--- a/EYZWG9_0409/eyzwg9.xlsx
+++ b/EYZWG9_0409/eyzwg9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCA6D4-E9C1-43CC-95EC-1642C7CA45C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F332B2-2F07-490C-BB93-BA94EB31399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="1" xr2:uid="{9AE628E0-7C8C-4AEC-ADCA-FC5545A271DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="252">
   <si>
     <t>Beérk. Idő (ms)</t>
   </si>
@@ -1126,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,7 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1255,6 +1254,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,7 +1276,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1609,7 +1620,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1619,17 +1630,17 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
+      <c r="A4" s="56">
         <v>45756</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>251</v>
       </c>
     </row>
@@ -1643,7 +1654,7 @@
   <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="AV20" sqref="AV20"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1839,7 @@
       <c r="N6" s="21"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="47" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2020,7 +2031,7 @@
       <c r="S10" s="40"/>
       <c r="T10" s="40"/>
       <c r="U10" s="40"/>
-      <c r="V10" s="65"/>
+      <c r="V10" s="57"/>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
@@ -2038,17 +2049,17 @@
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
       <c r="AM10" s="39"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="40"/>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="40"/>
-      <c r="AU10" s="40"/>
-      <c r="AV10" s="40"/>
-      <c r="AW10" s="40"/>
-      <c r="AX10" s="41"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="66"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2087,14 +2098,14 @@
       <c r="N11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="40"/>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
@@ -2103,10 +2114,10 @@
       <c r="AB11" s="40"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
@@ -2116,13 +2127,13 @@
       <c r="AO11" s="40"/>
       <c r="AP11" s="40"/>
       <c r="AQ11" s="40"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="40"/>
-      <c r="AT11" s="40"/>
-      <c r="AU11" s="40"/>
-      <c r="AV11" s="40"/>
-      <c r="AW11" s="40"/>
-      <c r="AX11" s="41"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="66"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -2161,11 +2172,11 @@
       <c r="N12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="40"/>
@@ -2173,10 +2184,10 @@
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
       <c r="AE12" s="40"/>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
@@ -2186,17 +2197,17 @@
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
       <c r="AR12" s="40"/>
       <c r="AS12" s="40"/>
       <c r="AT12" s="40"/>
       <c r="AU12" s="40"/>
       <c r="AV12" s="40"/>
-      <c r="AW12" s="43"/>
-      <c r="AX12" s="41"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="66"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -2232,378 +2243,310 @@
       <c r="L13" s="36">
         <v>36</v>
       </c>
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="46"/>
-      <c r="AT13" s="46"/>
-      <c r="AU13" s="46"/>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="47"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="46"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="N14" s="48" t="s">
+      <c r="N14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="R14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="S14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="X14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="17" t="s">
+      <c r="Y14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="AB14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="AC14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="AD14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W14" s="17" t="s">
+      <c r="AE14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="17" t="s">
+      <c r="AN14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="17" t="s">
+      <c r="AO14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="17" t="s">
+      <c r="AP14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AA14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM14" s="17" t="s">
+      <c r="AQ14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AN14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX14" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="AR14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX14" s="68"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="O15" s="17" t="s">
+      <c r="N15" s="69"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="U15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="V15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="17" t="s">
+      <c r="W15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="17" t="s">
+      <c r="X15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="17" t="s">
+      <c r="Y15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="Z15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="17" t="s">
+      <c r="AA15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="17" t="s">
+      <c r="AF15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="17" t="s">
+      <c r="AG15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="17" t="s">
+      <c r="AH15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="17" t="s">
+      <c r="AI15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AA15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE15" s="17" t="s">
+      <c r="AN15" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO15" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP15" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ15" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR15" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="72"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AF15" s="17" t="s">
+      <c r="AJ16" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AG15" s="17" t="s">
+      <c r="AK16" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AH15" s="17" t="s">
+      <c r="AL16" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AI15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX15" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="O16" s="17" t="s">
+      <c r="AM16" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX16" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="75"/>
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="75"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="75"/>
+      <c r="AX16" s="76"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
@@ -2698,7 +2641,7 @@
       <c r="K2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="55" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2729,10 +2672,10 @@
       <c r="I3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="54" t="s">
         <v>238</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -2770,7 +2713,7 @@
       <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="53" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2805,7 +2748,7 @@
       <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="52" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2904,7 +2847,7 @@
       <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="52"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2937,7 +2880,7 @@
       <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2970,7 +2913,7 @@
       <c r="I10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3204,21 +3147,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="50">
         <v>15</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <v>15</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="50">
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3236,21 +3179,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="50">
         <v>16</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="50">
         <v>16</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="50">
         <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3268,21 +3211,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="50">
         <v>17</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="50">
         <v>17</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
         <v>78.5</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="50">
         <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -3300,21 +3243,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <v>18</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="50">
         <v>18</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="50">
         <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3332,21 +3275,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <v>19</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="50">
         <v>19</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>79.5</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="50">
         <v>19</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3364,21 +3307,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="50">
         <v>20</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="50">
         <v>20</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="50">
         <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -3396,21 +3339,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="50">
         <v>21</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="50">
         <v>21</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
         <v>80.5</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="50">
         <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3428,21 +3371,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <v>22</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="50">
         <v>22</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="50">
         <v>22</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -3460,21 +3403,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="50">
         <v>23</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="50">
         <v>23</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>81.5</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="50">
         <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3492,21 +3435,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="50">
         <v>24</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="50">
         <v>24</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="50">
         <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3524,21 +3467,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="50">
         <v>25</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="50">
         <v>25</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="50">
         <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -3556,21 +3499,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="50">
         <v>26</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="50">
         <v>26</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="50">
         <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -3588,21 +3531,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="50">
         <v>27</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="50">
         <v>27</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
         <v>83.5</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="50">
         <v>27</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -3620,21 +3563,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="50">
         <v>28</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="50">
         <v>28</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="50">
         <v>28</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3652,21 +3595,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="50">
         <v>29</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="50">
         <v>29</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
         <v>84.5</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="50">
         <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -3684,21 +3627,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="50">
         <v>30</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="50">
         <v>30</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="50">
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -3716,21 +3659,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="50">
         <v>31</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="50">
         <v>31</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="2"/>
         <v>85.5</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="50">
         <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -3748,21 +3691,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="50">
         <v>32</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="50">
         <v>32</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="50">
         <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -3780,21 +3723,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="50">
         <v>33</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="50">
         <v>33</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="2"/>
         <v>86.5</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="50">
         <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3812,21 +3755,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="50">
         <v>34</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="50">
         <v>34</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="50">
         <v>34</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -3844,21 +3787,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="50">
         <v>35</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="50">
         <v>35</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
-      <c r="G38" s="51">
+      <c r="G38" s="50">
         <v>35</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3876,21 +3819,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="50">
         <v>36</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="50">
         <v>36</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="G39" s="51">
+      <c r="G39" s="50">
         <v>36</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -3908,21 +3851,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="50">
         <v>37</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="50">
         <v>37</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="2"/>
         <v>88.5</v>
       </c>
-      <c r="G40" s="51">
+      <c r="G40" s="50">
         <v>37</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -3940,21 +3883,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="50">
         <v>38</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="50">
         <v>38</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="G41" s="51">
+      <c r="G41" s="50">
         <v>38</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -3972,21 +3915,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="50">
         <v>39</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="50">
         <v>39</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="2"/>
         <v>89.5</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="50">
         <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -4004,21 +3947,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="50">
         <v>40</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="50">
         <v>40</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="50">
         <v>40</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -4036,21 +3979,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="50">
         <v>41</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="50">
         <v>41</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
         <v>90.5</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="50">
         <v>41</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -4068,21 +4011,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="50">
         <v>42</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="50">
         <v>42</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="50">
         <v>42</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -4100,21 +4043,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="50">
         <v>43</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="50">
         <v>43</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
         <v>91.5</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="50">
         <v>43</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -4132,21 +4075,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="50">
         <v>44</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="50">
         <v>44</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="50">
         <v>44</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -4164,21 +4107,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="50">
         <v>45</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="50">
         <v>45</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="50">
         <v>45</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -4196,21 +4139,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="50">
         <v>46</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="50">
         <v>46</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="50">
         <v>46</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -4228,21 +4171,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="50">
         <v>47</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="50">
         <v>47</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="2"/>
         <v>93.5</v>
       </c>
-      <c r="G50" s="51">
+      <c r="G50" s="50">
         <v>47</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -4260,21 +4203,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="50">
         <v>48</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="50">
         <v>48</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="G51" s="51">
+      <c r="G51" s="50">
         <v>48</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -4292,21 +4235,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="50">
         <v>49</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="50">
         <v>49</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="2"/>
         <v>94.5</v>
       </c>
-      <c r="G52" s="51">
+      <c r="G52" s="50">
         <v>49</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -4324,21 +4267,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="50">
         <v>50</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="50">
         <v>50</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="G53" s="51">
+      <c r="G53" s="50">
         <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -4356,21 +4299,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="50">
         <v>51</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="50">
         <v>51</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="2"/>
         <v>95.5</v>
       </c>
-      <c r="G54" s="51">
+      <c r="G54" s="50">
         <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -4388,21 +4331,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="50">
         <v>52</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="50">
         <v>52</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G55" s="50">
         <v>52</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -4420,21 +4363,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="50">
         <v>53</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="50">
         <v>53</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="2"/>
         <v>96.5</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G56" s="50">
         <v>53</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -4452,21 +4395,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="50">
         <v>54</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="50">
         <v>54</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="50">
         <v>54</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -4484,21 +4427,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="50">
         <v>55</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="50">
         <v>55</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
-      <c r="G58" s="51">
+      <c r="G58" s="50">
         <v>55</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -4516,21 +4459,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="50">
         <v>56</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="50">
         <v>56</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="50">
         <v>56</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -4548,21 +4491,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="50">
         <v>57</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="50">
         <v>57</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="2"/>
         <v>98.5</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="50">
         <v>57</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -4580,21 +4523,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="50">
         <v>58</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="50">
         <v>58</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="G61" s="51">
+      <c r="G61" s="50">
         <v>58</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -4612,21 +4555,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C62" s="51">
+      <c r="C62" s="50">
         <v>59</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="50">
         <v>59</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="2"/>
         <v>99.5</v>
       </c>
-      <c r="G62" s="51">
+      <c r="G62" s="50">
         <v>59</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -4644,21 +4587,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="50">
         <v>60</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="50">
         <v>60</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G63" s="51">
+      <c r="G63" s="50">
         <v>60</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -4676,21 +4619,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C64" s="50">
         <v>61</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E64" s="51">
+      <c r="E64" s="50">
         <v>61</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="2"/>
         <v>100.5</v>
       </c>
-      <c r="G64" s="51">
+      <c r="G64" s="50">
         <v>61</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -4708,21 +4651,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="50">
         <v>62</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E65" s="51">
+      <c r="E65" s="50">
         <v>62</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="G65" s="51">
+      <c r="G65" s="50">
         <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -4740,21 +4683,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="50">
         <v>63</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E66" s="51">
+      <c r="E66" s="50">
         <v>63</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="2"/>
         <v>101.5</v>
       </c>
-      <c r="G66" s="51">
+      <c r="G66" s="50">
         <v>63</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -4772,21 +4715,21 @@
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="50">
         <v>64</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E67" s="51">
+      <c r="E67" s="50">
         <v>64</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="G67" s="51">
+      <c r="G67" s="50">
         <v>64</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -4804,21 +4747,21 @@
         <f t="shared" ref="B68:B131" si="3">50 + (1 / 2) + (0 * 2)</f>
         <v>50.5</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="50">
         <v>65</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" ref="D68:D131" si="4">50 + (0 / 2) + (0 * 2)</f>
         <v>50</v>
       </c>
-      <c r="E68" s="51">
+      <c r="E68" s="50">
         <v>65</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="F68:F131" si="5">50 + (G68 / 2) + (10 * 2)</f>
         <v>102.5</v>
       </c>
-      <c r="G68" s="51">
+      <c r="G68" s="50">
         <v>65</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -4836,21 +4779,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="50">
         <v>66</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E69" s="51">
+      <c r="E69" s="50">
         <v>66</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="G69" s="51">
+      <c r="G69" s="50">
         <v>66</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -4868,21 +4811,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="50">
         <v>67</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="50">
         <v>67</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="5"/>
         <v>103.5</v>
       </c>
-      <c r="G70" s="51">
+      <c r="G70" s="50">
         <v>67</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -4900,21 +4843,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="50">
         <v>68</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E71" s="51">
+      <c r="E71" s="50">
         <v>68</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="G71" s="51">
+      <c r="G71" s="50">
         <v>68</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -4932,21 +4875,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="50">
         <v>69</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E72" s="51">
+      <c r="E72" s="50">
         <v>69</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="5"/>
         <v>104.5</v>
       </c>
-      <c r="G72" s="51">
+      <c r="G72" s="50">
         <v>69</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -4964,21 +4907,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C73" s="51">
+      <c r="C73" s="50">
         <v>70</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E73" s="51">
+      <c r="E73" s="50">
         <v>70</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="G73" s="51">
+      <c r="G73" s="50">
         <v>70</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -4996,21 +4939,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C74" s="51">
+      <c r="C74" s="50">
         <v>71</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E74" s="51">
+      <c r="E74" s="50">
         <v>71</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="5"/>
         <v>105.5</v>
       </c>
-      <c r="G74" s="51">
+      <c r="G74" s="50">
         <v>71</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -5028,21 +4971,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="50">
         <v>72</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="50">
         <v>72</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
-      <c r="G75" s="51">
+      <c r="G75" s="50">
         <v>72</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -5060,21 +5003,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="50">
         <v>73</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="50">
         <v>73</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="5"/>
         <v>106.5</v>
       </c>
-      <c r="G76" s="51">
+      <c r="G76" s="50">
         <v>73</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -5092,21 +5035,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C77" s="50">
         <v>74</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E77" s="51">
+      <c r="E77" s="50">
         <v>74</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="G77" s="51">
+      <c r="G77" s="50">
         <v>74</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -5124,21 +5067,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="50">
         <v>75</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="50">
         <v>75</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="5"/>
         <v>107.5</v>
       </c>
-      <c r="G78" s="51">
+      <c r="G78" s="50">
         <v>75</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -5156,21 +5099,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="50">
         <v>76</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E79" s="51">
+      <c r="E79" s="50">
         <v>76</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="G79" s="51">
+      <c r="G79" s="50">
         <v>76</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -5188,21 +5131,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="50">
         <v>77</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E80" s="51">
+      <c r="E80" s="50">
         <v>77</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="5"/>
         <v>108.5</v>
       </c>
-      <c r="G80" s="51">
+      <c r="G80" s="50">
         <v>77</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -5220,21 +5163,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="50">
         <v>78</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E81" s="51">
+      <c r="E81" s="50">
         <v>78</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="G81" s="51">
+      <c r="G81" s="50">
         <v>78</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -5252,21 +5195,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="50">
         <v>79</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E82" s="51">
+      <c r="E82" s="50">
         <v>79</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="5"/>
         <v>109.5</v>
       </c>
-      <c r="G82" s="51">
+      <c r="G82" s="50">
         <v>79</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -5284,21 +5227,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C83" s="51">
+      <c r="C83" s="50">
         <v>80</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E83" s="51">
+      <c r="E83" s="50">
         <v>80</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="G83" s="51">
+      <c r="G83" s="50">
         <v>80</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -5316,21 +5259,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="50">
         <v>81</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="50">
         <v>81</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="5"/>
         <v>110.5</v>
       </c>
-      <c r="G84" s="51">
+      <c r="G84" s="50">
         <v>81</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -5348,21 +5291,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C85" s="51">
+      <c r="C85" s="50">
         <v>82</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E85" s="51">
+      <c r="E85" s="50">
         <v>82</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="G85" s="51">
+      <c r="G85" s="50">
         <v>82</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -5380,21 +5323,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C86" s="51">
+      <c r="C86" s="50">
         <v>83</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E86" s="51">
+      <c r="E86" s="50">
         <v>83</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="5"/>
         <v>111.5</v>
       </c>
-      <c r="G86" s="51">
+      <c r="G86" s="50">
         <v>83</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -5412,21 +5355,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C87" s="51">
+      <c r="C87" s="50">
         <v>84</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E87" s="51">
+      <c r="E87" s="50">
         <v>84</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="G87" s="51">
+      <c r="G87" s="50">
         <v>84</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -5444,21 +5387,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C88" s="51">
+      <c r="C88" s="50">
         <v>85</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E88" s="51">
+      <c r="E88" s="50">
         <v>85</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
-      <c r="G88" s="51">
+      <c r="G88" s="50">
         <v>85</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -5476,21 +5419,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C89" s="51">
+      <c r="C89" s="50">
         <v>86</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E89" s="51">
+      <c r="E89" s="50">
         <v>86</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="G89" s="51">
+      <c r="G89" s="50">
         <v>86</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -5508,21 +5451,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C90" s="51">
+      <c r="C90" s="50">
         <v>87</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E90" s="51">
+      <c r="E90" s="50">
         <v>87</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="5"/>
         <v>113.5</v>
       </c>
-      <c r="G90" s="51">
+      <c r="G90" s="50">
         <v>87</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -5540,21 +5483,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="50">
         <v>88</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E91" s="51">
+      <c r="E91" s="50">
         <v>88</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="G91" s="51">
+      <c r="G91" s="50">
         <v>88</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -5572,21 +5515,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C92" s="51">
+      <c r="C92" s="50">
         <v>89</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E92" s="51">
+      <c r="E92" s="50">
         <v>89</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="5"/>
         <v>114.5</v>
       </c>
-      <c r="G92" s="51">
+      <c r="G92" s="50">
         <v>89</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -5604,21 +5547,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="50">
         <v>90</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E93" s="51">
+      <c r="E93" s="50">
         <v>90</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="G93" s="51">
+      <c r="G93" s="50">
         <v>90</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -5636,21 +5579,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C94" s="51">
+      <c r="C94" s="50">
         <v>91</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E94" s="51">
+      <c r="E94" s="50">
         <v>91</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="5"/>
         <v>115.5</v>
       </c>
-      <c r="G94" s="51">
+      <c r="G94" s="50">
         <v>91</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -5668,21 +5611,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C95" s="51">
+      <c r="C95" s="50">
         <v>92</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E95" s="51">
+      <c r="E95" s="50">
         <v>92</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="G95" s="51">
+      <c r="G95" s="50">
         <v>92</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -5700,21 +5643,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C96" s="51">
+      <c r="C96" s="50">
         <v>93</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E96" s="51">
+      <c r="E96" s="50">
         <v>93</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="5"/>
         <v>116.5</v>
       </c>
-      <c r="G96" s="51">
+      <c r="G96" s="50">
         <v>93</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -5732,21 +5675,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="50">
         <v>94</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E97" s="51">
+      <c r="E97" s="50">
         <v>94</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="G97" s="51">
+      <c r="G97" s="50">
         <v>94</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -5764,21 +5707,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C98" s="51">
+      <c r="C98" s="50">
         <v>95</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E98" s="51">
+      <c r="E98" s="50">
         <v>95</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="5"/>
         <v>117.5</v>
       </c>
-      <c r="G98" s="51">
+      <c r="G98" s="50">
         <v>95</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -5796,21 +5739,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C99" s="51">
+      <c r="C99" s="50">
         <v>96</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E99" s="51">
+      <c r="E99" s="50">
         <v>96</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="G99" s="51">
+      <c r="G99" s="50">
         <v>96</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -5828,21 +5771,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C100" s="51">
+      <c r="C100" s="50">
         <v>97</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E100" s="51">
+      <c r="E100" s="50">
         <v>97</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="5"/>
         <v>118.5</v>
       </c>
-      <c r="G100" s="51">
+      <c r="G100" s="50">
         <v>97</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -5860,21 +5803,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C101" s="51">
+      <c r="C101" s="50">
         <v>98</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E101" s="51">
+      <c r="E101" s="50">
         <v>98</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="G101" s="51">
+      <c r="G101" s="50">
         <v>98</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -5892,21 +5835,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C102" s="51">
+      <c r="C102" s="50">
         <v>99</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E102" s="51">
+      <c r="E102" s="50">
         <v>99</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="5"/>
         <v>119.5</v>
       </c>
-      <c r="G102" s="51">
+      <c r="G102" s="50">
         <v>99</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -5924,21 +5867,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C103" s="51">
+      <c r="C103" s="50">
         <v>100</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E103" s="51">
+      <c r="E103" s="50">
         <v>100</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="G103" s="51">
+      <c r="G103" s="50">
         <v>100</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -5956,21 +5899,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C104" s="51">
+      <c r="C104" s="50">
         <v>101</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E104" s="51">
+      <c r="E104" s="50">
         <v>101</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="5"/>
         <v>120.5</v>
       </c>
-      <c r="G104" s="51">
+      <c r="G104" s="50">
         <v>101</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -5988,21 +5931,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C105" s="51">
+      <c r="C105" s="50">
         <v>102</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E105" s="51">
+      <c r="E105" s="50">
         <v>102</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="G105" s="51">
+      <c r="G105" s="50">
         <v>102</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -6020,21 +5963,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C106" s="51">
+      <c r="C106" s="50">
         <v>103</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E106" s="51">
+      <c r="E106" s="50">
         <v>103</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="5"/>
         <v>121.5</v>
       </c>
-      <c r="G106" s="51">
+      <c r="G106" s="50">
         <v>103</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -6052,21 +5995,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C107" s="51">
+      <c r="C107" s="50">
         <v>104</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E107" s="51">
+      <c r="E107" s="50">
         <v>104</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="G107" s="51">
+      <c r="G107" s="50">
         <v>104</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -6084,21 +6027,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C108" s="51">
+      <c r="C108" s="50">
         <v>105</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E108" s="51">
+      <c r="E108" s="50">
         <v>105</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="5"/>
         <v>122.5</v>
       </c>
-      <c r="G108" s="51">
+      <c r="G108" s="50">
         <v>105</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -6116,21 +6059,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C109" s="51">
+      <c r="C109" s="50">
         <v>106</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E109" s="51">
+      <c r="E109" s="50">
         <v>106</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="G109" s="51">
+      <c r="G109" s="50">
         <v>106</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -6148,21 +6091,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C110" s="51">
+      <c r="C110" s="50">
         <v>107</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E110" s="51">
+      <c r="E110" s="50">
         <v>107</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="5"/>
         <v>123.5</v>
       </c>
-      <c r="G110" s="51">
+      <c r="G110" s="50">
         <v>107</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -6180,21 +6123,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C111" s="51">
+      <c r="C111" s="50">
         <v>108</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E111" s="51">
+      <c r="E111" s="50">
         <v>108</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="G111" s="51">
+      <c r="G111" s="50">
         <v>108</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -6212,21 +6155,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C112" s="51">
+      <c r="C112" s="50">
         <v>109</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E112" s="51">
+      <c r="E112" s="50">
         <v>109</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="5"/>
         <v>124.5</v>
       </c>
-      <c r="G112" s="51">
+      <c r="G112" s="50">
         <v>109</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -6244,21 +6187,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C113" s="51">
+      <c r="C113" s="50">
         <v>110</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E113" s="51">
+      <c r="E113" s="50">
         <v>110</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="G113" s="51">
+      <c r="G113" s="50">
         <v>110</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -6276,21 +6219,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C114" s="51">
+      <c r="C114" s="50">
         <v>111</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E114" s="51">
+      <c r="E114" s="50">
         <v>111</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="5"/>
         <v>125.5</v>
       </c>
-      <c r="G114" s="51">
+      <c r="G114" s="50">
         <v>111</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -6308,21 +6251,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C115" s="51">
+      <c r="C115" s="50">
         <v>112</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E115" s="51">
+      <c r="E115" s="50">
         <v>112</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="G115" s="51">
+      <c r="G115" s="50">
         <v>112</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -6340,21 +6283,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C116" s="51">
+      <c r="C116" s="50">
         <v>113</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E116" s="51">
+      <c r="E116" s="50">
         <v>113</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="5"/>
         <v>126.5</v>
       </c>
-      <c r="G116" s="51">
+      <c r="G116" s="50">
         <v>113</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -6372,21 +6315,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C117" s="51">
+      <c r="C117" s="50">
         <v>114</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E117" s="51">
+      <c r="E117" s="50">
         <v>114</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
-      <c r="G117" s="51">
+      <c r="G117" s="50">
         <v>114</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -6404,21 +6347,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C118" s="51">
+      <c r="C118" s="50">
         <v>115</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E118" s="51">
+      <c r="E118" s="50">
         <v>115</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="5"/>
         <v>127.5</v>
       </c>
-      <c r="G118" s="51">
+      <c r="G118" s="50">
         <v>115</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -6436,21 +6379,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C119" s="51">
+      <c r="C119" s="50">
         <v>116</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E119" s="51">
+      <c r="E119" s="50">
         <v>116</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="G119" s="51">
+      <c r="G119" s="50">
         <v>116</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -6468,21 +6411,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C120" s="51">
+      <c r="C120" s="50">
         <v>117</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E120" s="51">
+      <c r="E120" s="50">
         <v>117</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="5"/>
         <v>128.5</v>
       </c>
-      <c r="G120" s="51">
+      <c r="G120" s="50">
         <v>117</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -6500,21 +6443,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C121" s="51">
+      <c r="C121" s="50">
         <v>118</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E121" s="51">
+      <c r="E121" s="50">
         <v>118</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="G121" s="51">
+      <c r="G121" s="50">
         <v>118</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -6532,21 +6475,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C122" s="51">
+      <c r="C122" s="50">
         <v>119</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E122" s="51">
+      <c r="E122" s="50">
         <v>119</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="5"/>
         <v>129.5</v>
       </c>
-      <c r="G122" s="51">
+      <c r="G122" s="50">
         <v>119</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -6564,21 +6507,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C123" s="51">
+      <c r="C123" s="50">
         <v>120</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E123" s="51">
+      <c r="E123" s="50">
         <v>120</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="G123" s="51">
+      <c r="G123" s="50">
         <v>120</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -6596,21 +6539,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C124" s="51">
+      <c r="C124" s="50">
         <v>121</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E124" s="51">
+      <c r="E124" s="50">
         <v>121</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="5"/>
         <v>130.5</v>
       </c>
-      <c r="G124" s="51">
+      <c r="G124" s="50">
         <v>121</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -6628,21 +6571,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C125" s="51">
+      <c r="C125" s="50">
         <v>122</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E125" s="51">
+      <c r="E125" s="50">
         <v>122</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="5"/>
         <v>131</v>
       </c>
-      <c r="G125" s="51">
+      <c r="G125" s="50">
         <v>122</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -6660,21 +6603,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C126" s="51">
+      <c r="C126" s="50">
         <v>123</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E126" s="51">
+      <c r="E126" s="50">
         <v>123</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="5"/>
         <v>131.5</v>
       </c>
-      <c r="G126" s="51">
+      <c r="G126" s="50">
         <v>123</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -6692,21 +6635,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C127" s="51">
+      <c r="C127" s="50">
         <v>124</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E127" s="51">
+      <c r="E127" s="50">
         <v>124</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="G127" s="51">
+      <c r="G127" s="50">
         <v>124</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -6724,21 +6667,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C128" s="51">
+      <c r="C128" s="50">
         <v>125</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E128" s="51">
+      <c r="E128" s="50">
         <v>125</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="5"/>
         <v>132.5</v>
       </c>
-      <c r="G128" s="51">
+      <c r="G128" s="50">
         <v>125</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -6756,21 +6699,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C129" s="51">
+      <c r="C129" s="50">
         <v>126</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E129" s="51">
+      <c r="E129" s="50">
         <v>126</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="5"/>
         <v>133</v>
       </c>
-      <c r="G129" s="51">
+      <c r="G129" s="50">
         <v>126</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -6788,21 +6731,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C130" s="51">
+      <c r="C130" s="50">
         <v>127</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E130" s="51">
+      <c r="E130" s="50">
         <v>127</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="5"/>
         <v>133.5</v>
       </c>
-      <c r="G130" s="51">
+      <c r="G130" s="50">
         <v>127</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -6820,21 +6763,21 @@
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="C131" s="51">
+      <c r="C131" s="50">
         <v>128</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E131" s="51">
+      <c r="E131" s="50">
         <v>128</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
-      <c r="G131" s="51">
+      <c r="G131" s="50">
         <v>128</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -6852,21 +6795,21 @@
         <f t="shared" ref="B132:B195" si="6">50 + (1 / 2) + (0 * 2)</f>
         <v>50.5</v>
       </c>
-      <c r="C132" s="51">
+      <c r="C132" s="50">
         <v>129</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" ref="D132:D195" si="7">50 + (0 / 2) + (0 * 2)</f>
         <v>50</v>
       </c>
-      <c r="E132" s="51">
+      <c r="E132" s="50">
         <v>129</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" ref="F132:F195" si="8">50 + (G132 / 2) + (10 * 2)</f>
         <v>134.5</v>
       </c>
-      <c r="G132" s="51">
+      <c r="G132" s="50">
         <v>129</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -6884,21 +6827,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C133" s="51">
+      <c r="C133" s="50">
         <v>130</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E133" s="51">
+      <c r="E133" s="50">
         <v>130</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="G133" s="51">
+      <c r="G133" s="50">
         <v>130</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -6916,21 +6859,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C134" s="51">
+      <c r="C134" s="50">
         <v>131</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E134" s="51">
+      <c r="E134" s="50">
         <v>131</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="8"/>
         <v>135.5</v>
       </c>
-      <c r="G134" s="51">
+      <c r="G134" s="50">
         <v>131</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -6948,21 +6891,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C135" s="51">
+      <c r="C135" s="50">
         <v>132</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E135" s="51">
+      <c r="E135" s="50">
         <v>132</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="G135" s="51">
+      <c r="G135" s="50">
         <v>132</v>
       </c>
       <c r="H135" s="1" t="s">
@@ -6980,21 +6923,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C136" s="51">
+      <c r="C136" s="50">
         <v>133</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E136" s="51">
+      <c r="E136" s="50">
         <v>133</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="8"/>
         <v>136.5</v>
       </c>
-      <c r="G136" s="51">
+      <c r="G136" s="50">
         <v>133</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -7012,21 +6955,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C137" s="51">
+      <c r="C137" s="50">
         <v>134</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E137" s="51">
+      <c r="E137" s="50">
         <v>134</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="G137" s="51">
+      <c r="G137" s="50">
         <v>134</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -7044,21 +6987,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C138" s="51">
+      <c r="C138" s="50">
         <v>135</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E138" s="51">
+      <c r="E138" s="50">
         <v>135</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="8"/>
         <v>137.5</v>
       </c>
-      <c r="G138" s="51">
+      <c r="G138" s="50">
         <v>135</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -7076,21 +7019,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C139" s="51">
+      <c r="C139" s="50">
         <v>136</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E139" s="51">
+      <c r="E139" s="50">
         <v>136</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="G139" s="51">
+      <c r="G139" s="50">
         <v>136</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -7108,21 +7051,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C140" s="51">
+      <c r="C140" s="50">
         <v>137</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E140" s="51">
+      <c r="E140" s="50">
         <v>137</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="8"/>
         <v>138.5</v>
       </c>
-      <c r="G140" s="51">
+      <c r="G140" s="50">
         <v>137</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -7140,21 +7083,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C141" s="51">
+      <c r="C141" s="50">
         <v>138</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E141" s="51">
+      <c r="E141" s="50">
         <v>138</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="G141" s="51">
+      <c r="G141" s="50">
         <v>138</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -7172,21 +7115,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C142" s="51">
+      <c r="C142" s="50">
         <v>139</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E142" s="51">
+      <c r="E142" s="50">
         <v>139</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="8"/>
         <v>139.5</v>
       </c>
-      <c r="G142" s="51">
+      <c r="G142" s="50">
         <v>139</v>
       </c>
       <c r="H142" s="1" t="s">
@@ -7204,21 +7147,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C143" s="51">
+      <c r="C143" s="50">
         <v>140</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E143" s="51">
+      <c r="E143" s="50">
         <v>140</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="G143" s="51">
+      <c r="G143" s="50">
         <v>140</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -7236,21 +7179,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C144" s="51">
+      <c r="C144" s="50">
         <v>141</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E144" s="51">
+      <c r="E144" s="50">
         <v>141</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="8"/>
         <v>140.5</v>
       </c>
-      <c r="G144" s="51">
+      <c r="G144" s="50">
         <v>141</v>
       </c>
       <c r="H144" s="1" t="s">
@@ -7268,21 +7211,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C145" s="51">
+      <c r="C145" s="50">
         <v>142</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E145" s="51">
+      <c r="E145" s="50">
         <v>142</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="G145" s="51">
+      <c r="G145" s="50">
         <v>142</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -7300,21 +7243,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C146" s="51">
+      <c r="C146" s="50">
         <v>143</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E146" s="51">
+      <c r="E146" s="50">
         <v>143</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="8"/>
         <v>141.5</v>
       </c>
-      <c r="G146" s="51">
+      <c r="G146" s="50">
         <v>143</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -7332,21 +7275,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C147" s="51">
+      <c r="C147" s="50">
         <v>144</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E147" s="51">
+      <c r="E147" s="50">
         <v>144</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
-      <c r="G147" s="51">
+      <c r="G147" s="50">
         <v>144</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -7364,21 +7307,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C148" s="51">
+      <c r="C148" s="50">
         <v>145</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E148" s="51">
+      <c r="E148" s="50">
         <v>145</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="8"/>
         <v>142.5</v>
       </c>
-      <c r="G148" s="51">
+      <c r="G148" s="50">
         <v>145</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -7396,21 +7339,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C149" s="51">
+      <c r="C149" s="50">
         <v>146</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E149" s="51">
+      <c r="E149" s="50">
         <v>146</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="8"/>
         <v>143</v>
       </c>
-      <c r="G149" s="51">
+      <c r="G149" s="50">
         <v>146</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -7428,21 +7371,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C150" s="51">
+      <c r="C150" s="50">
         <v>147</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E150" s="51">
+      <c r="E150" s="50">
         <v>147</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="8"/>
         <v>143.5</v>
       </c>
-      <c r="G150" s="51">
+      <c r="G150" s="50">
         <v>147</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -7460,21 +7403,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C151" s="51">
+      <c r="C151" s="50">
         <v>148</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E151" s="51">
+      <c r="E151" s="50">
         <v>148</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="G151" s="51">
+      <c r="G151" s="50">
         <v>148</v>
       </c>
       <c r="H151" s="1" t="s">
@@ -7492,21 +7435,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C152" s="51">
+      <c r="C152" s="50">
         <v>149</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E152" s="51">
+      <c r="E152" s="50">
         <v>149</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="8"/>
         <v>144.5</v>
       </c>
-      <c r="G152" s="51">
+      <c r="G152" s="50">
         <v>149</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -7524,21 +7467,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C153" s="51">
+      <c r="C153" s="50">
         <v>150</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E153" s="51">
+      <c r="E153" s="50">
         <v>150</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="8"/>
         <v>145</v>
       </c>
-      <c r="G153" s="51">
+      <c r="G153" s="50">
         <v>150</v>
       </c>
       <c r="H153" s="1" t="s">
@@ -7556,21 +7499,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C154" s="51">
+      <c r="C154" s="50">
         <v>151</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E154" s="51">
+      <c r="E154" s="50">
         <v>151</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="8"/>
         <v>145.5</v>
       </c>
-      <c r="G154" s="51">
+      <c r="G154" s="50">
         <v>151</v>
       </c>
       <c r="H154" s="1" t="s">
@@ -7588,21 +7531,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C155" s="51">
+      <c r="C155" s="50">
         <v>152</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E155" s="51">
+      <c r="E155" s="50">
         <v>152</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="G155" s="51">
+      <c r="G155" s="50">
         <v>152</v>
       </c>
       <c r="H155" s="1" t="s">
@@ -7620,21 +7563,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C156" s="51">
+      <c r="C156" s="50">
         <v>153</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E156" s="51">
+      <c r="E156" s="50">
         <v>153</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="8"/>
         <v>146.5</v>
       </c>
-      <c r="G156" s="51">
+      <c r="G156" s="50">
         <v>153</v>
       </c>
       <c r="H156" s="1" t="s">
@@ -7652,21 +7595,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C157" s="51">
+      <c r="C157" s="50">
         <v>154</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E157" s="51">
+      <c r="E157" s="50">
         <v>154</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="G157" s="51">
+      <c r="G157" s="50">
         <v>154</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -7684,21 +7627,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C158" s="51">
+      <c r="C158" s="50">
         <v>155</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E158" s="51">
+      <c r="E158" s="50">
         <v>155</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="8"/>
         <v>147.5</v>
       </c>
-      <c r="G158" s="51">
+      <c r="G158" s="50">
         <v>155</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -7716,21 +7659,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C159" s="51">
+      <c r="C159" s="50">
         <v>156</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E159" s="51">
+      <c r="E159" s="50">
         <v>156</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="G159" s="51">
+      <c r="G159" s="50">
         <v>156</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -7748,21 +7691,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C160" s="51">
+      <c r="C160" s="50">
         <v>157</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E160" s="51">
+      <c r="E160" s="50">
         <v>157</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="8"/>
         <v>148.5</v>
       </c>
-      <c r="G160" s="51">
+      <c r="G160" s="50">
         <v>157</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -7780,21 +7723,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C161" s="51">
+      <c r="C161" s="50">
         <v>158</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E161" s="51">
+      <c r="E161" s="50">
         <v>158</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="8"/>
         <v>149</v>
       </c>
-      <c r="G161" s="51">
+      <c r="G161" s="50">
         <v>158</v>
       </c>
       <c r="H161" s="1" t="s">
@@ -7812,21 +7755,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C162" s="51">
+      <c r="C162" s="50">
         <v>159</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E162" s="51">
+      <c r="E162" s="50">
         <v>159</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="8"/>
         <v>149.5</v>
       </c>
-      <c r="G162" s="51">
+      <c r="G162" s="50">
         <v>159</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -7844,21 +7787,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C163" s="51">
+      <c r="C163" s="50">
         <v>160</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E163" s="51">
+      <c r="E163" s="50">
         <v>160</v>
       </c>
       <c r="F163" s="1">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="G163" s="51">
+      <c r="G163" s="50">
         <v>160</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -7876,21 +7819,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C164" s="51">
+      <c r="C164" s="50">
         <v>161</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E164" s="51">
+      <c r="E164" s="50">
         <v>161</v>
       </c>
       <c r="F164" s="1">
         <f t="shared" si="8"/>
         <v>150.5</v>
       </c>
-      <c r="G164" s="51">
+      <c r="G164" s="50">
         <v>161</v>
       </c>
       <c r="H164" s="1" t="s">
@@ -7908,21 +7851,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C165" s="51">
+      <c r="C165" s="50">
         <v>162</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E165" s="51">
+      <c r="E165" s="50">
         <v>162</v>
       </c>
       <c r="F165" s="1">
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="G165" s="51">
+      <c r="G165" s="50">
         <v>162</v>
       </c>
       <c r="H165" s="1" t="s">
@@ -7940,21 +7883,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C166" s="51">
+      <c r="C166" s="50">
         <v>163</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E166" s="51">
+      <c r="E166" s="50">
         <v>163</v>
       </c>
       <c r="F166" s="1">
         <f t="shared" si="8"/>
         <v>151.5</v>
       </c>
-      <c r="G166" s="51">
+      <c r="G166" s="50">
         <v>163</v>
       </c>
       <c r="H166" s="1" t="s">
@@ -7972,21 +7915,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C167" s="51">
+      <c r="C167" s="50">
         <v>164</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E167" s="51">
+      <c r="E167" s="50">
         <v>164</v>
       </c>
       <c r="F167" s="1">
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="G167" s="51">
+      <c r="G167" s="50">
         <v>164</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -8004,21 +7947,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C168" s="51">
+      <c r="C168" s="50">
         <v>165</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E168" s="51">
+      <c r="E168" s="50">
         <v>165</v>
       </c>
       <c r="F168" s="1">
         <f t="shared" si="8"/>
         <v>152.5</v>
       </c>
-      <c r="G168" s="51">
+      <c r="G168" s="50">
         <v>165</v>
       </c>
       <c r="H168" s="1" t="s">
@@ -8036,21 +7979,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C169" s="51">
+      <c r="C169" s="50">
         <v>166</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E169" s="51">
+      <c r="E169" s="50">
         <v>166</v>
       </c>
       <c r="F169" s="1">
         <f t="shared" si="8"/>
         <v>153</v>
       </c>
-      <c r="G169" s="51">
+      <c r="G169" s="50">
         <v>166</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -8068,21 +8011,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C170" s="51">
+      <c r="C170" s="50">
         <v>167</v>
       </c>
       <c r="D170" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E170" s="51">
+      <c r="E170" s="50">
         <v>167</v>
       </c>
       <c r="F170" s="1">
         <f t="shared" si="8"/>
         <v>153.5</v>
       </c>
-      <c r="G170" s="51">
+      <c r="G170" s="50">
         <v>167</v>
       </c>
       <c r="H170" s="1" t="s">
@@ -8100,21 +8043,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C171" s="51">
+      <c r="C171" s="50">
         <v>168</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E171" s="51">
+      <c r="E171" s="50">
         <v>168</v>
       </c>
       <c r="F171" s="1">
         <f t="shared" si="8"/>
         <v>154</v>
       </c>
-      <c r="G171" s="51">
+      <c r="G171" s="50">
         <v>168</v>
       </c>
       <c r="H171" s="1" t="s">
@@ -8132,21 +8075,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C172" s="51">
+      <c r="C172" s="50">
         <v>169</v>
       </c>
       <c r="D172" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E172" s="51">
+      <c r="E172" s="50">
         <v>169</v>
       </c>
       <c r="F172" s="1">
         <f t="shared" si="8"/>
         <v>154.5</v>
       </c>
-      <c r="G172" s="51">
+      <c r="G172" s="50">
         <v>169</v>
       </c>
       <c r="H172" s="1" t="s">
@@ -8164,21 +8107,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C173" s="51">
+      <c r="C173" s="50">
         <v>170</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E173" s="51">
+      <c r="E173" s="50">
         <v>170</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="G173" s="51">
+      <c r="G173" s="50">
         <v>170</v>
       </c>
       <c r="H173" s="1" t="s">
@@ -8196,21 +8139,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C174" s="51">
+      <c r="C174" s="50">
         <v>171</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E174" s="51">
+      <c r="E174" s="50">
         <v>171</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="8"/>
         <v>155.5</v>
       </c>
-      <c r="G174" s="51">
+      <c r="G174" s="50">
         <v>171</v>
       </c>
       <c r="H174" s="1" t="s">
@@ -8228,21 +8171,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C175" s="51">
+      <c r="C175" s="50">
         <v>172</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E175" s="51">
+      <c r="E175" s="50">
         <v>172</v>
       </c>
       <c r="F175" s="1">
         <f t="shared" si="8"/>
         <v>156</v>
       </c>
-      <c r="G175" s="51">
+      <c r="G175" s="50">
         <v>172</v>
       </c>
       <c r="H175" s="1" t="s">
@@ -8260,21 +8203,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C176" s="51">
+      <c r="C176" s="50">
         <v>173</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E176" s="51">
+      <c r="E176" s="50">
         <v>173</v>
       </c>
       <c r="F176" s="1">
         <f t="shared" si="8"/>
         <v>156.5</v>
       </c>
-      <c r="G176" s="51">
+      <c r="G176" s="50">
         <v>173</v>
       </c>
       <c r="H176" s="1" t="s">
@@ -8292,21 +8235,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C177" s="51">
+      <c r="C177" s="50">
         <v>174</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E177" s="51">
+      <c r="E177" s="50">
         <v>174</v>
       </c>
       <c r="F177" s="1">
         <f t="shared" si="8"/>
         <v>157</v>
       </c>
-      <c r="G177" s="51">
+      <c r="G177" s="50">
         <v>174</v>
       </c>
       <c r="H177" s="1" t="s">
@@ -8324,21 +8267,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C178" s="51">
+      <c r="C178" s="50">
         <v>175</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E178" s="51">
+      <c r="E178" s="50">
         <v>175</v>
       </c>
       <c r="F178" s="1">
         <f t="shared" si="8"/>
         <v>157.5</v>
       </c>
-      <c r="G178" s="51">
+      <c r="G178" s="50">
         <v>175</v>
       </c>
       <c r="H178" s="1" t="s">
@@ -8356,21 +8299,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C179" s="51">
+      <c r="C179" s="50">
         <v>176</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E179" s="51">
+      <c r="E179" s="50">
         <v>176</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" si="8"/>
         <v>158</v>
       </c>
-      <c r="G179" s="51">
+      <c r="G179" s="50">
         <v>176</v>
       </c>
       <c r="H179" s="1" t="s">
@@ -8388,21 +8331,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C180" s="51">
+      <c r="C180" s="50">
         <v>177</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E180" s="51">
+      <c r="E180" s="50">
         <v>177</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" si="8"/>
         <v>158.5</v>
       </c>
-      <c r="G180" s="51">
+      <c r="G180" s="50">
         <v>177</v>
       </c>
       <c r="H180" s="1" t="s">
@@ -8420,21 +8363,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C181" s="51">
+      <c r="C181" s="50">
         <v>178</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E181" s="51">
+      <c r="E181" s="50">
         <v>178</v>
       </c>
       <c r="F181" s="1">
         <f t="shared" si="8"/>
         <v>159</v>
       </c>
-      <c r="G181" s="51">
+      <c r="G181" s="50">
         <v>178</v>
       </c>
       <c r="H181" s="1" t="s">
@@ -8452,21 +8395,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C182" s="51">
+      <c r="C182" s="50">
         <v>179</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E182" s="51">
+      <c r="E182" s="50">
         <v>179</v>
       </c>
       <c r="F182" s="1">
         <f t="shared" si="8"/>
         <v>159.5</v>
       </c>
-      <c r="G182" s="51">
+      <c r="G182" s="50">
         <v>179</v>
       </c>
       <c r="H182" s="1" t="s">
@@ -8484,21 +8427,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C183" s="51">
+      <c r="C183" s="50">
         <v>180</v>
       </c>
       <c r="D183" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E183" s="51">
+      <c r="E183" s="50">
         <v>180</v>
       </c>
       <c r="F183" s="1">
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="G183" s="51">
+      <c r="G183" s="50">
         <v>180</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -8516,21 +8459,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C184" s="51">
+      <c r="C184" s="50">
         <v>181</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E184" s="51">
+      <c r="E184" s="50">
         <v>181</v>
       </c>
       <c r="F184" s="1">
         <f t="shared" si="8"/>
         <v>160.5</v>
       </c>
-      <c r="G184" s="51">
+      <c r="G184" s="50">
         <v>181</v>
       </c>
       <c r="H184" s="1" t="s">
@@ -8548,21 +8491,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C185" s="51">
+      <c r="C185" s="50">
         <v>182</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E185" s="51">
+      <c r="E185" s="50">
         <v>182</v>
       </c>
       <c r="F185" s="1">
         <f t="shared" si="8"/>
         <v>161</v>
       </c>
-      <c r="G185" s="51">
+      <c r="G185" s="50">
         <v>182</v>
       </c>
       <c r="H185" s="1" t="s">
@@ -8580,21 +8523,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C186" s="51">
+      <c r="C186" s="50">
         <v>183</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E186" s="51">
+      <c r="E186" s="50">
         <v>183</v>
       </c>
       <c r="F186" s="1">
         <f t="shared" si="8"/>
         <v>161.5</v>
       </c>
-      <c r="G186" s="51">
+      <c r="G186" s="50">
         <v>183</v>
       </c>
       <c r="H186" s="1" t="s">
@@ -8612,21 +8555,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C187" s="51">
+      <c r="C187" s="50">
         <v>184</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E187" s="51">
+      <c r="E187" s="50">
         <v>184</v>
       </c>
       <c r="F187" s="1">
         <f t="shared" si="8"/>
         <v>162</v>
       </c>
-      <c r="G187" s="51">
+      <c r="G187" s="50">
         <v>184</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -8644,21 +8587,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C188" s="51">
+      <c r="C188" s="50">
         <v>185</v>
       </c>
       <c r="D188" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E188" s="51">
+      <c r="E188" s="50">
         <v>185</v>
       </c>
       <c r="F188" s="1">
         <f t="shared" si="8"/>
         <v>162.5</v>
       </c>
-      <c r="G188" s="51">
+      <c r="G188" s="50">
         <v>185</v>
       </c>
       <c r="H188" s="1" t="s">
@@ -8676,21 +8619,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C189" s="51">
+      <c r="C189" s="50">
         <v>186</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E189" s="51">
+      <c r="E189" s="50">
         <v>186</v>
       </c>
       <c r="F189" s="1">
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
-      <c r="G189" s="51">
+      <c r="G189" s="50">
         <v>186</v>
       </c>
       <c r="H189" s="1" t="s">
@@ -8708,21 +8651,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C190" s="51">
+      <c r="C190" s="50">
         <v>187</v>
       </c>
       <c r="D190" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E190" s="51">
+      <c r="E190" s="50">
         <v>187</v>
       </c>
       <c r="F190" s="1">
         <f t="shared" si="8"/>
         <v>163.5</v>
       </c>
-      <c r="G190" s="51">
+      <c r="G190" s="50">
         <v>187</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -8740,21 +8683,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C191" s="51">
+      <c r="C191" s="50">
         <v>188</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E191" s="51">
+      <c r="E191" s="50">
         <v>188</v>
       </c>
       <c r="F191" s="1">
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="G191" s="51">
+      <c r="G191" s="50">
         <v>188</v>
       </c>
       <c r="H191" s="1" t="s">
@@ -8772,21 +8715,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C192" s="51">
+      <c r="C192" s="50">
         <v>189</v>
       </c>
       <c r="D192" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E192" s="51">
+      <c r="E192" s="50">
         <v>189</v>
       </c>
       <c r="F192" s="1">
         <f t="shared" si="8"/>
         <v>164.5</v>
       </c>
-      <c r="G192" s="51">
+      <c r="G192" s="50">
         <v>189</v>
       </c>
       <c r="H192" s="1" t="s">
@@ -8804,21 +8747,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C193" s="51">
+      <c r="C193" s="50">
         <v>190</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E193" s="51">
+      <c r="E193" s="50">
         <v>190</v>
       </c>
       <c r="F193" s="1">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="G193" s="51">
+      <c r="G193" s="50">
         <v>190</v>
       </c>
       <c r="H193" s="1" t="s">
@@ -8836,21 +8779,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C194" s="51">
+      <c r="C194" s="50">
         <v>191</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E194" s="51">
+      <c r="E194" s="50">
         <v>191</v>
       </c>
       <c r="F194" s="1">
         <f t="shared" si="8"/>
         <v>165.5</v>
       </c>
-      <c r="G194" s="51">
+      <c r="G194" s="50">
         <v>191</v>
       </c>
       <c r="H194" s="1" t="s">
@@ -8868,21 +8811,21 @@
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="C195" s="51">
+      <c r="C195" s="50">
         <v>192</v>
       </c>
       <c r="D195" s="1">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E195" s="51">
+      <c r="E195" s="50">
         <v>192</v>
       </c>
       <c r="F195" s="1">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="G195" s="51">
+      <c r="G195" s="50">
         <v>192</v>
       </c>
       <c r="H195" s="1" t="s">
@@ -8900,21 +8843,21 @@
         <f t="shared" ref="B196:B204" si="9">50 + (1 / 2) + (0 * 2)</f>
         <v>50.5</v>
       </c>
-      <c r="C196" s="51">
+      <c r="C196" s="50">
         <v>193</v>
       </c>
       <c r="D196" s="1">
         <f t="shared" ref="D196:D204" si="10">50 + (0 / 2) + (0 * 2)</f>
         <v>50</v>
       </c>
-      <c r="E196" s="51">
+      <c r="E196" s="50">
         <v>193</v>
       </c>
       <c r="F196" s="1">
         <f t="shared" ref="F196:F204" si="11">50 + (G196 / 2) + (10 * 2)</f>
         <v>166.5</v>
       </c>
-      <c r="G196" s="51">
+      <c r="G196" s="50">
         <v>193</v>
       </c>
       <c r="H196" s="1" t="s">
@@ -8932,21 +8875,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C197" s="51">
+      <c r="C197" s="50">
         <v>194</v>
       </c>
       <c r="D197" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E197" s="51">
+      <c r="E197" s="50">
         <v>194</v>
       </c>
       <c r="F197" s="1">
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="G197" s="51">
+      <c r="G197" s="50">
         <v>194</v>
       </c>
       <c r="H197" s="1" t="s">
@@ -8964,21 +8907,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C198" s="51">
+      <c r="C198" s="50">
         <v>195</v>
       </c>
       <c r="D198" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E198" s="51">
+      <c r="E198" s="50">
         <v>195</v>
       </c>
       <c r="F198" s="1">
         <f t="shared" si="11"/>
         <v>167.5</v>
       </c>
-      <c r="G198" s="51">
+      <c r="G198" s="50">
         <v>195</v>
       </c>
       <c r="H198" s="1" t="s">
@@ -8996,21 +8939,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C199" s="51">
+      <c r="C199" s="50">
         <v>196</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E199" s="51">
+      <c r="E199" s="50">
         <v>196</v>
       </c>
       <c r="F199" s="1">
         <f t="shared" si="11"/>
         <v>168</v>
       </c>
-      <c r="G199" s="51">
+      <c r="G199" s="50">
         <v>196</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -9028,21 +8971,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C200" s="51">
+      <c r="C200" s="50">
         <v>197</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E200" s="51">
+      <c r="E200" s="50">
         <v>197</v>
       </c>
       <c r="F200" s="1">
         <f t="shared" si="11"/>
         <v>168.5</v>
       </c>
-      <c r="G200" s="51">
+      <c r="G200" s="50">
         <v>197</v>
       </c>
       <c r="H200" s="1" t="s">
@@ -9060,21 +9003,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C201" s="51">
+      <c r="C201" s="50">
         <v>198</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E201" s="51">
+      <c r="E201" s="50">
         <v>198</v>
       </c>
       <c r="F201" s="1">
         <f t="shared" si="11"/>
         <v>169</v>
       </c>
-      <c r="G201" s="51">
+      <c r="G201" s="50">
         <v>198</v>
       </c>
       <c r="H201" s="1" t="s">
@@ -9092,21 +9035,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C202" s="51">
+      <c r="C202" s="50">
         <v>199</v>
       </c>
       <c r="D202" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E202" s="51">
+      <c r="E202" s="50">
         <v>199</v>
       </c>
       <c r="F202" s="1">
         <f t="shared" si="11"/>
         <v>169.5</v>
       </c>
-      <c r="G202" s="51">
+      <c r="G202" s="50">
         <v>199</v>
       </c>
       <c r="H202" s="1" t="s">
@@ -9124,21 +9067,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C203" s="51">
+      <c r="C203" s="50">
         <v>200</v>
       </c>
       <c r="D203" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E203" s="51">
+      <c r="E203" s="50">
         <v>200</v>
       </c>
       <c r="F203" s="1">
         <f t="shared" si="11"/>
         <v>170</v>
       </c>
-      <c r="G203" s="51">
+      <c r="G203" s="50">
         <v>200</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -9156,21 +9099,21 @@
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="C204" s="51">
+      <c r="C204" s="50">
         <v>201</v>
       </c>
       <c r="D204" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="E204" s="51">
+      <c r="E204" s="50">
         <v>201</v>
       </c>
       <c r="F204" s="1">
         <f t="shared" si="11"/>
         <v>170.5</v>
       </c>
-      <c r="G204" s="51">
+      <c r="G204" s="50">
         <v>201</v>
       </c>
       <c r="H204" s="1" t="s">

--- a/EYZWG9_0409/eyzwg9.xlsx
+++ b/EYZWG9_0409/eyzwg9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F332B2-2F07-490C-BB93-BA94EB31399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A71D061-5836-4F02-B74C-AFE6C8B0BEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="1" xr2:uid="{9AE628E0-7C8C-4AEC-ADCA-FC5545A271DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="253">
   <si>
     <t>Beérk. Idő (ms)</t>
   </si>
@@ -792,6 +792,9 @@
   </si>
   <si>
     <t>3.munkalap - 3. Feladat RR nélkül</t>
+  </si>
+  <si>
+    <t>Végrehajtási sorrend</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1121,12 +1124,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,6 +1295,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,18 +1324,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1653,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE8F27-D21D-4B7A-B82C-EC0A10ADE4E8}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1723,7 @@
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="50" width="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1844,10 +1895,10 @@
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="67"/>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2049,17 +2100,7 @@
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
       <c r="AM10" s="39"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="66"/>
+      <c r="AX10" s="58"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2098,8 +2139,6 @@
       <c r="N11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
       <c r="S11" s="41"/>
@@ -2128,12 +2167,7 @@
       <c r="AP11" s="40"/>
       <c r="AQ11" s="40"/>
       <c r="AR11" s="41"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="66"/>
+      <c r="AX11" s="58"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -2172,11 +2206,6 @@
       <c r="N12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="40"/>
@@ -2207,7 +2236,7 @@
       <c r="AU12" s="40"/>
       <c r="AV12" s="40"/>
       <c r="AW12" s="42"/>
-      <c r="AX12" s="66"/>
+      <c r="AX12" s="58"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -2246,16 +2275,16 @@
       <c r="N13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
@@ -2388,172 +2417,240 @@
       <c r="AW14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AX14" s="68"/>
+      <c r="AX14" s="60"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="N15" s="69"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70" t="s">
+      <c r="N15" s="61"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="70" t="s">
+      <c r="U15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="70" t="s">
+      <c r="V15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="70" t="s">
+      <c r="W15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="70" t="s">
+      <c r="X15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="70" t="s">
+      <c r="Y15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="70" t="s">
+      <c r="Z15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AA15" s="70" t="s">
+      <c r="AA15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="70" t="s">
+      <c r="AB15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AC15" s="70" t="s">
+      <c r="AC15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AD15" s="70" t="s">
+      <c r="AD15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AE15" s="70" t="s">
+      <c r="AE15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AF15" s="70" t="s">
+      <c r="AF15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AG15" s="70" t="s">
+      <c r="AG15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AH15" s="70" t="s">
+      <c r="AH15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AI15" s="70" t="s">
+      <c r="AI15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AJ15" s="70" t="s">
+      <c r="AJ15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AK15" s="70" t="s">
+      <c r="AK15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AL15" s="70" t="s">
+      <c r="AL15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AM15" s="70" t="s">
+      <c r="AM15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AN15" s="70" t="s">
+      <c r="AN15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AO15" s="70" t="s">
+      <c r="AO15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AP15" s="70" t="s">
+      <c r="AP15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AQ15" s="70" t="s">
+      <c r="AQ15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AR15" s="70" t="s">
+      <c r="AR15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="72"/>
+      <c r="AX15" s="62"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74" t="s">
+      <c r="N16" s="63"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="Z16" s="74" t="s">
+      <c r="Z16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AA16" s="74" t="s">
+      <c r="AA16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AB16" s="74" t="s">
+      <c r="AB16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AC16" s="74" t="s">
+      <c r="AC16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AD16" s="74" t="s">
+      <c r="AD16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AE16" s="74" t="s">
+      <c r="AE16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AF16" s="74" t="s">
+      <c r="AF16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AG16" s="74" t="s">
+      <c r="AG16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AH16" s="74" t="s">
+      <c r="AH16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AI16" s="74" t="s">
+      <c r="AI16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AJ16" s="74" t="s">
+      <c r="AJ16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AK16" s="74" t="s">
+      <c r="AK16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AL16" s="74" t="s">
+      <c r="AL16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AM16" s="74" t="s">
+      <c r="AM16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="75"/>
-      <c r="AP16" s="75"/>
-      <c r="AQ16" s="75"/>
-      <c r="AR16" s="75"/>
-      <c r="AS16" s="75"/>
-      <c r="AT16" s="75"/>
-      <c r="AU16" s="75"/>
-      <c r="AV16" s="75"/>
-      <c r="AW16" s="75"/>
-      <c r="AX16" s="76"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="AN16" s="59"/>
+      <c r="AO16" s="59"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="59"/>
+      <c r="AU16" s="59"/>
+      <c r="AV16" s="59"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="65"/>
+    </row>
+    <row r="17" spans="4:50" x14ac:dyDescent="0.25">
+      <c r="N17" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="O17" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="74"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS17" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX17" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AS17:AV17"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2585,27 +2682,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
